--- a/Updated Schedule.xlsx
+++ b/Updated Schedule.xlsx
@@ -2709,7 +2709,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_($* #,##0.00_);_($* (#,##0.00);_($* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2">
     <font>

--- a/Updated Schedule.xlsx
+++ b/Updated Schedule.xlsx
@@ -3233,7 +3233,7 @@
         <v>27</v>
       </c>
       <c r="S2" s="4">
-        <f>IF(C2=0,0,N2/D2)</f>
+        <f>IF(C2=0,0,N2/C2)</f>
         <v>0</v>
       </c>
       <c r="T2" s="3">
@@ -3306,7 +3306,7 @@
         <v>27</v>
       </c>
       <c r="S3" s="4">
-        <f>IF(C3=0,0,N3/D3)</f>
+        <f>IF(C3=0,0,N3/C3)</f>
         <v>0</v>
       </c>
       <c r="T3" s="3">
@@ -3379,7 +3379,7 @@
         <v>27</v>
       </c>
       <c r="S4" s="4">
-        <f>IF(C4=0,0,N4/D4)</f>
+        <f>IF(C4=0,0,N4/C4)</f>
         <v>0</v>
       </c>
       <c r="T4" s="3">
@@ -3452,7 +3452,7 @@
         <v>27</v>
       </c>
       <c r="S5" s="4">
-        <f>IF(C5=0,0,N5/D5)</f>
+        <f>IF(C5=0,0,N5/C5)</f>
         <v>0</v>
       </c>
       <c r="T5" s="3">
@@ -3525,7 +3525,7 @@
         <v>27</v>
       </c>
       <c r="S6" s="4">
-        <f>IF(C6=0,0,N6/D6)</f>
+        <f>IF(C6=0,0,N6/C6)</f>
         <v>0</v>
       </c>
       <c r="T6" s="3">
@@ -3598,7 +3598,7 @@
         <v>27</v>
       </c>
       <c r="S7" s="4">
-        <f>IF(C7=0,0,N7/D7)</f>
+        <f>IF(C7=0,0,N7/C7)</f>
         <v>0</v>
       </c>
       <c r="T7" s="3">
@@ -3671,7 +3671,7 @@
         <v>27</v>
       </c>
       <c r="S8" s="4">
-        <f>IF(C8=0,0,N8/D8)</f>
+        <f>IF(C8=0,0,N8/C8)</f>
         <v>0</v>
       </c>
       <c r="T8" s="3">
@@ -3744,7 +3744,7 @@
         <v>27</v>
       </c>
       <c r="S9" s="4">
-        <f>IF(C9=0,0,N9/D9)</f>
+        <f>IF(C9=0,0,N9/C9)</f>
         <v>0</v>
       </c>
       <c r="T9" s="3">
@@ -3817,7 +3817,7 @@
         <v>27</v>
       </c>
       <c r="S10" s="4">
-        <f>IF(C10=0,0,N10/D10)</f>
+        <f>IF(C10=0,0,N10/C10)</f>
         <v>0</v>
       </c>
       <c r="T10" s="3">
@@ -3890,7 +3890,7 @@
         <v>27</v>
       </c>
       <c r="S11" s="4">
-        <f>IF(C11=0,0,N11/D11)</f>
+        <f>IF(C11=0,0,N11/C11)</f>
         <v>0</v>
       </c>
       <c r="T11" s="3">
@@ -3963,7 +3963,7 @@
         <v>27</v>
       </c>
       <c r="S12" s="4">
-        <f>IF(C12=0,0,N12/D12)</f>
+        <f>IF(C12=0,0,N12/C12)</f>
         <v>0</v>
       </c>
       <c r="T12" s="3">
@@ -4036,7 +4036,7 @@
         <v>27</v>
       </c>
       <c r="S13" s="4">
-        <f>IF(C13=0,0,N13/D13)</f>
+        <f>IF(C13=0,0,N13/C13)</f>
         <v>0</v>
       </c>
       <c r="T13" s="3">
@@ -4109,7 +4109,7 @@
         <v>27</v>
       </c>
       <c r="S14" s="4">
-        <f>IF(C14=0,0,N14/D14)</f>
+        <f>IF(C14=0,0,N14/C14)</f>
         <v>0</v>
       </c>
       <c r="T14" s="3">
@@ -4182,7 +4182,7 @@
         <v>27</v>
       </c>
       <c r="S15" s="4">
-        <f>IF(C15=0,0,N15/D15)</f>
+        <f>IF(C15=0,0,N15/C15)</f>
         <v>0</v>
       </c>
       <c r="T15" s="3">
@@ -4255,7 +4255,7 @@
         <v>27</v>
       </c>
       <c r="S16" s="4">
-        <f>IF(C16=0,0,N16/D16)</f>
+        <f>IF(C16=0,0,N16/C16)</f>
         <v>0</v>
       </c>
       <c r="T16" s="3">
@@ -4328,7 +4328,7 @@
         <v>27</v>
       </c>
       <c r="S17" s="4">
-        <f>IF(C17=0,0,N17/D17)</f>
+        <f>IF(C17=0,0,N17/C17)</f>
         <v>0</v>
       </c>
       <c r="T17" s="3">
@@ -4401,7 +4401,7 @@
         <v>27</v>
       </c>
       <c r="S18" s="4">
-        <f>IF(C18=0,0,N18/D18)</f>
+        <f>IF(C18=0,0,N18/C18)</f>
         <v>0</v>
       </c>
       <c r="T18" s="3">
@@ -4474,7 +4474,7 @@
         <v>27</v>
       </c>
       <c r="S19" s="4">
-        <f>IF(C19=0,0,N19/D19)</f>
+        <f>IF(C19=0,0,N19/C19)</f>
         <v>0</v>
       </c>
       <c r="T19" s="3">
@@ -4547,7 +4547,7 @@
         <v>27</v>
       </c>
       <c r="S20" s="4">
-        <f>IF(C20=0,0,N20/D20)</f>
+        <f>IF(C20=0,0,N20/C20)</f>
         <v>0</v>
       </c>
       <c r="T20" s="3">
@@ -4620,7 +4620,7 @@
         <v>27</v>
       </c>
       <c r="S21" s="4">
-        <f>IF(C21=0,0,N21/D21)</f>
+        <f>IF(C21=0,0,N21/C21)</f>
         <v>0</v>
       </c>
       <c r="T21" s="3">
@@ -4693,7 +4693,7 @@
         <v>27</v>
       </c>
       <c r="S22" s="4">
-        <f>IF(C22=0,0,N22/D22)</f>
+        <f>IF(C22=0,0,N22/C22)</f>
         <v>0</v>
       </c>
       <c r="T22" s="3">
@@ -4766,7 +4766,7 @@
         <v>27</v>
       </c>
       <c r="S23" s="4">
-        <f>IF(C23=0,0,N23/D23)</f>
+        <f>IF(C23=0,0,N23/C23)</f>
         <v>0</v>
       </c>
       <c r="T23" s="3">
@@ -4839,7 +4839,7 @@
         <v>27</v>
       </c>
       <c r="S24" s="4">
-        <f>IF(C24=0,0,N24/D24)</f>
+        <f>IF(C24=0,0,N24/C24)</f>
         <v>0</v>
       </c>
       <c r="T24" s="3">
@@ -4912,7 +4912,7 @@
         <v>27</v>
       </c>
       <c r="S25" s="4">
-        <f>IF(C25=0,0,N25/D25)</f>
+        <f>IF(C25=0,0,N25/C25)</f>
         <v>0</v>
       </c>
       <c r="T25" s="3">
@@ -4985,7 +4985,7 @@
         <v>27</v>
       </c>
       <c r="S26" s="4">
-        <f>IF(C26=0,0,N26/D26)</f>
+        <f>IF(C26=0,0,N26/C26)</f>
         <v>0</v>
       </c>
       <c r="T26" s="3">
@@ -5058,7 +5058,7 @@
         <v>27</v>
       </c>
       <c r="S27" s="4">
-        <f>IF(C27=0,0,N27/D27)</f>
+        <f>IF(C27=0,0,N27/C27)</f>
         <v>0</v>
       </c>
       <c r="T27" s="3">
@@ -5131,7 +5131,7 @@
         <v>27</v>
       </c>
       <c r="S28" s="4">
-        <f>IF(C28=0,0,N28/D28)</f>
+        <f>IF(C28=0,0,N28/C28)</f>
         <v>0</v>
       </c>
       <c r="T28" s="3">
@@ -5204,7 +5204,7 @@
         <v>27</v>
       </c>
       <c r="S29" s="4">
-        <f>IF(C29=0,0,N29/D29)</f>
+        <f>IF(C29=0,0,N29/C29)</f>
         <v>0</v>
       </c>
       <c r="T29" s="3">
@@ -5277,7 +5277,7 @@
         <v>27</v>
       </c>
       <c r="S30" s="4">
-        <f>IF(C30=0,0,N30/D30)</f>
+        <f>IF(C30=0,0,N30/C30)</f>
         <v>0</v>
       </c>
       <c r="T30" s="3">
@@ -5350,7 +5350,7 @@
         <v>27</v>
       </c>
       <c r="S31" s="4">
-        <f>IF(C31=0,0,N31/D31)</f>
+        <f>IF(C31=0,0,N31/C31)</f>
         <v>0</v>
       </c>
       <c r="T31" s="3">
@@ -5423,7 +5423,7 @@
         <v>27</v>
       </c>
       <c r="S32" s="4">
-        <f>IF(C32=0,0,N32/D32)</f>
+        <f>IF(C32=0,0,N32/C32)</f>
         <v>0</v>
       </c>
       <c r="T32" s="3">
@@ -5496,7 +5496,7 @@
         <v>27</v>
       </c>
       <c r="S33" s="4">
-        <f>IF(C33=0,0,N33/D33)</f>
+        <f>IF(C33=0,0,N33/C33)</f>
         <v>0</v>
       </c>
       <c r="T33" s="3">
@@ -5569,7 +5569,7 @@
         <v>27</v>
       </c>
       <c r="S34" s="4">
-        <f>IF(C34=0,0,N34/D34)</f>
+        <f>IF(C34=0,0,N34/C34)</f>
         <v>0</v>
       </c>
       <c r="T34" s="3">
@@ -5642,7 +5642,7 @@
         <v>27</v>
       </c>
       <c r="S35" s="4">
-        <f>IF(C35=0,0,N35/D35)</f>
+        <f>IF(C35=0,0,N35/C35)</f>
         <v>0</v>
       </c>
       <c r="T35" s="3">
@@ -5715,7 +5715,7 @@
         <v>27</v>
       </c>
       <c r="S36" s="4">
-        <f>IF(C36=0,0,N36/D36)</f>
+        <f>IF(C36=0,0,N36/C36)</f>
         <v>0</v>
       </c>
       <c r="T36" s="3">
@@ -5788,7 +5788,7 @@
         <v>27</v>
       </c>
       <c r="S37" s="4">
-        <f>IF(C37=0,0,N37/D37)</f>
+        <f>IF(C37=0,0,N37/C37)</f>
         <v>0</v>
       </c>
       <c r="T37" s="3">
@@ -5861,7 +5861,7 @@
         <v>27</v>
       </c>
       <c r="S38" s="4">
-        <f>IF(C38=0,0,N38/D38)</f>
+        <f>IF(C38=0,0,N38/C38)</f>
         <v>0</v>
       </c>
       <c r="T38" s="3">
@@ -5934,7 +5934,7 @@
         <v>27</v>
       </c>
       <c r="S39" s="4">
-        <f>IF(C39=0,0,N39/D39)</f>
+        <f>IF(C39=0,0,N39/C39)</f>
         <v>0</v>
       </c>
       <c r="T39" s="3">
@@ -6007,7 +6007,7 @@
         <v>27</v>
       </c>
       <c r="S40" s="4">
-        <f>IF(C40=0,0,N40/D40)</f>
+        <f>IF(C40=0,0,N40/C40)</f>
         <v>0</v>
       </c>
       <c r="T40" s="3">
@@ -6080,7 +6080,7 @@
         <v>27</v>
       </c>
       <c r="S41" s="4">
-        <f>IF(C41=0,0,N41/D41)</f>
+        <f>IF(C41=0,0,N41/C41)</f>
         <v>0</v>
       </c>
       <c r="T41" s="3">
@@ -6153,7 +6153,7 @@
         <v>27</v>
       </c>
       <c r="S42" s="4">
-        <f>IF(C42=0,0,N42/D42)</f>
+        <f>IF(C42=0,0,N42/C42)</f>
         <v>0</v>
       </c>
       <c r="T42" s="3">
@@ -6226,7 +6226,7 @@
         <v>27</v>
       </c>
       <c r="S43" s="4">
-        <f>IF(C43=0,0,N43/D43)</f>
+        <f>IF(C43=0,0,N43/C43)</f>
         <v>0</v>
       </c>
       <c r="T43" s="3">
@@ -6299,7 +6299,7 @@
         <v>27</v>
       </c>
       <c r="S44" s="4">
-        <f>IF(C44=0,0,N44/D44)</f>
+        <f>IF(C44=0,0,N44/C44)</f>
         <v>0</v>
       </c>
       <c r="T44" s="3">
@@ -6372,7 +6372,7 @@
         <v>27</v>
       </c>
       <c r="S45" s="4">
-        <f>IF(C45=0,0,N45/D45)</f>
+        <f>IF(C45=0,0,N45/C45)</f>
         <v>0</v>
       </c>
       <c r="T45" s="3">
@@ -6445,7 +6445,7 @@
         <v>27</v>
       </c>
       <c r="S46" s="4">
-        <f>IF(C46=0,0,N46/D46)</f>
+        <f>IF(C46=0,0,N46/C46)</f>
         <v>0</v>
       </c>
       <c r="T46" s="3">
@@ -6518,7 +6518,7 @@
         <v>27</v>
       </c>
       <c r="S47" s="4">
-        <f>IF(C47=0,0,N47/D47)</f>
+        <f>IF(C47=0,0,N47/C47)</f>
         <v>0</v>
       </c>
       <c r="T47" s="3">
@@ -6591,7 +6591,7 @@
         <v>27</v>
       </c>
       <c r="S48" s="4">
-        <f>IF(C48=0,0,N48/D48)</f>
+        <f>IF(C48=0,0,N48/C48)</f>
         <v>0</v>
       </c>
       <c r="T48" s="3">
@@ -6664,7 +6664,7 @@
         <v>27</v>
       </c>
       <c r="S49" s="4">
-        <f>IF(C49=0,0,N49/D49)</f>
+        <f>IF(C49=0,0,N49/C49)</f>
         <v>0</v>
       </c>
       <c r="T49" s="3">
@@ -6737,7 +6737,7 @@
         <v>27</v>
       </c>
       <c r="S50" s="4">
-        <f>IF(C50=0,0,N50/D50)</f>
+        <f>IF(C50=0,0,N50/C50)</f>
         <v>0</v>
       </c>
       <c r="T50" s="3">
@@ -6810,7 +6810,7 @@
         <v>27</v>
       </c>
       <c r="S51" s="4">
-        <f>IF(C51=0,0,N51/D51)</f>
+        <f>IF(C51=0,0,N51/C51)</f>
         <v>0</v>
       </c>
       <c r="T51" s="3">
@@ -6883,7 +6883,7 @@
         <v>27</v>
       </c>
       <c r="S52" s="4">
-        <f>IF(C52=0,0,N52/D52)</f>
+        <f>IF(C52=0,0,N52/C52)</f>
         <v>0</v>
       </c>
       <c r="T52" s="3">
@@ -6956,7 +6956,7 @@
         <v>27</v>
       </c>
       <c r="S53" s="4">
-        <f>IF(C53=0,0,N53/D53)</f>
+        <f>IF(C53=0,0,N53/C53)</f>
         <v>0</v>
       </c>
       <c r="T53" s="3">
@@ -7029,7 +7029,7 @@
         <v>27</v>
       </c>
       <c r="S54" s="4">
-        <f>IF(C54=0,0,N54/D54)</f>
+        <f>IF(C54=0,0,N54/C54)</f>
         <v>0</v>
       </c>
       <c r="T54" s="3">
@@ -7102,7 +7102,7 @@
         <v>27</v>
       </c>
       <c r="S55" s="4">
-        <f>IF(C55=0,0,N55/D55)</f>
+        <f>IF(C55=0,0,N55/C55)</f>
         <v>0</v>
       </c>
       <c r="T55" s="3">
@@ -7175,7 +7175,7 @@
         <v>27</v>
       </c>
       <c r="S56" s="4">
-        <f>IF(C56=0,0,N56/D56)</f>
+        <f>IF(C56=0,0,N56/C56)</f>
         <v>0</v>
       </c>
       <c r="T56" s="3">
@@ -7248,7 +7248,7 @@
         <v>27</v>
       </c>
       <c r="S57" s="4">
-        <f>IF(C57=0,0,N57/D57)</f>
+        <f>IF(C57=0,0,N57/C57)</f>
         <v>0</v>
       </c>
       <c r="T57" s="3">
@@ -7321,7 +7321,7 @@
         <v>27</v>
       </c>
       <c r="S58" s="4">
-        <f>IF(C58=0,0,N58/D58)</f>
+        <f>IF(C58=0,0,N58/C58)</f>
         <v>0</v>
       </c>
       <c r="T58" s="3">
@@ -7394,7 +7394,7 @@
         <v>27</v>
       </c>
       <c r="S59" s="4">
-        <f>IF(C59=0,0,N59/D59)</f>
+        <f>IF(C59=0,0,N59/C59)</f>
         <v>0</v>
       </c>
       <c r="T59" s="3">
@@ -7467,7 +7467,7 @@
         <v>27</v>
       </c>
       <c r="S60" s="4">
-        <f>IF(C60=0,0,N60/D60)</f>
+        <f>IF(C60=0,0,N60/C60)</f>
         <v>0</v>
       </c>
       <c r="T60" s="3">
@@ -7540,7 +7540,7 @@
         <v>27</v>
       </c>
       <c r="S61" s="4">
-        <f>IF(C61=0,0,N61/D61)</f>
+        <f>IF(C61=0,0,N61/C61)</f>
         <v>0</v>
       </c>
       <c r="T61" s="3">
@@ -7613,7 +7613,7 @@
         <v>27</v>
       </c>
       <c r="S62" s="4">
-        <f>IF(C62=0,0,N62/D62)</f>
+        <f>IF(C62=0,0,N62/C62)</f>
         <v>0</v>
       </c>
       <c r="T62" s="3">
@@ -7686,7 +7686,7 @@
         <v>27</v>
       </c>
       <c r="S63" s="4">
-        <f>IF(C63=0,0,N63/D63)</f>
+        <f>IF(C63=0,0,N63/C63)</f>
         <v>0</v>
       </c>
       <c r="T63" s="3">
@@ -7759,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="S64" s="4">
-        <f>IF(C64=0,0,N64/D64)</f>
+        <f>IF(C64=0,0,N64/C64)</f>
         <v>0</v>
       </c>
       <c r="T64" s="3">
@@ -7832,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="S65" s="4">
-        <f>IF(C65=0,0,N65/D65)</f>
+        <f>IF(C65=0,0,N65/C65)</f>
         <v>0</v>
       </c>
       <c r="T65" s="3">
@@ -7905,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="S66" s="4">
-        <f>IF(C66=0,0,N66/D66)</f>
+        <f>IF(C66=0,0,N66/C66)</f>
         <v>0</v>
       </c>
       <c r="T66" s="3">
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="S67" s="4">
-        <f>IF(C67=0,0,N67/D67)</f>
+        <f>IF(C67=0,0,N67/C67)</f>
         <v>0</v>
       </c>
       <c r="T67" s="3">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="S68" s="4">
-        <f>IF(C68=0,0,N68/D68)</f>
+        <f>IF(C68=0,0,N68/C68)</f>
         <v>0</v>
       </c>
       <c r="T68" s="3">
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="S69" s="4">
-        <f>IF(C69=0,0,N69/D69)</f>
+        <f>IF(C69=0,0,N69/C69)</f>
         <v>0</v>
       </c>
       <c r="T69" s="3">
@@ -8197,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="S70" s="4">
-        <f>IF(C70=0,0,N70/D70)</f>
+        <f>IF(C70=0,0,N70/C70)</f>
         <v>0</v>
       </c>
       <c r="T70" s="3">
@@ -8270,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="S71" s="4">
-        <f>IF(C71=0,0,N71/D71)</f>
+        <f>IF(C71=0,0,N71/C71)</f>
         <v>0</v>
       </c>
       <c r="T71" s="3">
@@ -8343,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="S72" s="4">
-        <f>IF(C72=0,0,N72/D72)</f>
+        <f>IF(C72=0,0,N72/C72)</f>
         <v>0</v>
       </c>
       <c r="T72" s="3">
@@ -8416,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="S73" s="4">
-        <f>IF(C73=0,0,N73/D73)</f>
+        <f>IF(C73=0,0,N73/C73)</f>
         <v>0</v>
       </c>
       <c r="T73" s="3">
@@ -8489,7 +8489,7 @@
         <v>0</v>
       </c>
       <c r="S74" s="4">
-        <f>IF(C74=0,0,N74/D74)</f>
+        <f>IF(C74=0,0,N74/C74)</f>
         <v>0</v>
       </c>
       <c r="T74" s="3">
@@ -8562,7 +8562,7 @@
         <v>0</v>
       </c>
       <c r="S75" s="4">
-        <f>IF(C75=0,0,N75/D75)</f>
+        <f>IF(C75=0,0,N75/C75)</f>
         <v>0</v>
       </c>
       <c r="T75" s="3">
@@ -8635,7 +8635,7 @@
         <v>0</v>
       </c>
       <c r="S76" s="4">
-        <f>IF(C76=0,0,N76/D76)</f>
+        <f>IF(C76=0,0,N76/C76)</f>
         <v>0</v>
       </c>
       <c r="T76" s="3">
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="S77" s="4">
-        <f>IF(C77=0,0,N77/D77)</f>
+        <f>IF(C77=0,0,N77/C77)</f>
         <v>0</v>
       </c>
       <c r="T77" s="3">
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="S78" s="4">
-        <f>IF(C78=0,0,N78/D78)</f>
+        <f>IF(C78=0,0,N78/C78)</f>
         <v>0</v>
       </c>
       <c r="T78" s="3">
@@ -8854,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="S79" s="4">
-        <f>IF(C79=0,0,N79/D79)</f>
+        <f>IF(C79=0,0,N79/C79)</f>
         <v>0</v>
       </c>
       <c r="T79" s="3">
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="S80" s="4">
-        <f>IF(C80=0,0,N80/D80)</f>
+        <f>IF(C80=0,0,N80/C80)</f>
         <v>0</v>
       </c>
       <c r="T80" s="3">
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="S81" s="4">
-        <f>IF(C81=0,0,N81/D81)</f>
+        <f>IF(C81=0,0,N81/C81)</f>
         <v>0</v>
       </c>
       <c r="T81" s="3">
@@ -9073,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="S82" s="4">
-        <f>IF(C82=0,0,N82/D82)</f>
+        <f>IF(C82=0,0,N82/C82)</f>
         <v>0</v>
       </c>
       <c r="T82" s="3">
@@ -9146,7 +9146,7 @@
         <v>0</v>
       </c>
       <c r="S83" s="4">
-        <f>IF(C83=0,0,N83/D83)</f>
+        <f>IF(C83=0,0,N83/C83)</f>
         <v>0</v>
       </c>
       <c r="T83" s="3">
@@ -9219,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="S84" s="4">
-        <f>IF(C84=0,0,N84/D84)</f>
+        <f>IF(C84=0,0,N84/C84)</f>
         <v>0</v>
       </c>
       <c r="T84" s="3">
@@ -9292,7 +9292,7 @@
         <v>0</v>
       </c>
       <c r="S85" s="4">
-        <f>IF(C85=0,0,N85/D85)</f>
+        <f>IF(C85=0,0,N85/C85)</f>
         <v>0</v>
       </c>
       <c r="T85" s="3">
@@ -9365,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="S86" s="4">
-        <f>IF(C86=0,0,N86/D86)</f>
+        <f>IF(C86=0,0,N86/C86)</f>
         <v>0</v>
       </c>
       <c r="T86" s="3">
@@ -9438,7 +9438,7 @@
         <v>0</v>
       </c>
       <c r="S87" s="4">
-        <f>IF(C87=0,0,N87/D87)</f>
+        <f>IF(C87=0,0,N87/C87)</f>
         <v>0</v>
       </c>
       <c r="T87" s="3">
@@ -9511,7 +9511,7 @@
         <v>0</v>
       </c>
       <c r="S88" s="4">
-        <f>IF(C88=0,0,N88/D88)</f>
+        <f>IF(C88=0,0,N88/C88)</f>
         <v>0</v>
       </c>
       <c r="T88" s="3">
@@ -9584,7 +9584,7 @@
         <v>207</v>
       </c>
       <c r="S89" s="4">
-        <f>IF(C89=0,0,N89/D89)</f>
+        <f>IF(C89=0,0,N89/C89)</f>
         <v>0</v>
       </c>
       <c r="T89" s="3">
@@ -9657,7 +9657,7 @@
         <v>207</v>
       </c>
       <c r="S90" s="4">
-        <f>IF(C90=0,0,N90/D90)</f>
+        <f>IF(C90=0,0,N90/C90)</f>
         <v>0</v>
       </c>
       <c r="T90" s="3">
@@ -9730,7 +9730,7 @@
         <v>207</v>
       </c>
       <c r="S91" s="4">
-        <f>IF(C91=0,0,N91/D91)</f>
+        <f>IF(C91=0,0,N91/C91)</f>
         <v>0</v>
       </c>
       <c r="T91" s="3">
@@ -9803,7 +9803,7 @@
         <v>207</v>
       </c>
       <c r="S92" s="4">
-        <f>IF(C92=0,0,N92/D92)</f>
+        <f>IF(C92=0,0,N92/C92)</f>
         <v>0</v>
       </c>
       <c r="T92" s="3">
@@ -9876,7 +9876,7 @@
         <v>207</v>
       </c>
       <c r="S93" s="4">
-        <f>IF(C93=0,0,N93/D93)</f>
+        <f>IF(C93=0,0,N93/C93)</f>
         <v>0</v>
       </c>
       <c r="T93" s="3">
@@ -9949,7 +9949,7 @@
         <v>207</v>
       </c>
       <c r="S94" s="4">
-        <f>IF(C94=0,0,N94/D94)</f>
+        <f>IF(C94=0,0,N94/C94)</f>
         <v>0</v>
       </c>
       <c r="T94" s="3">
@@ -10022,7 +10022,7 @@
         <v>220</v>
       </c>
       <c r="S95" s="4">
-        <f>IF(C95=0,0,N95/D95)</f>
+        <f>IF(C95=0,0,N95/C95)</f>
         <v>0</v>
       </c>
       <c r="T95" s="3">
@@ -10095,7 +10095,7 @@
         <v>207</v>
       </c>
       <c r="S96" s="4">
-        <f>IF(C96=0,0,N96/D96)</f>
+        <f>IF(C96=0,0,N96/C96)</f>
         <v>0</v>
       </c>
       <c r="T96" s="3">
@@ -10168,7 +10168,7 @@
         <v>0</v>
       </c>
       <c r="S97" s="4">
-        <f>IF(C97=0,0,N97/D97)</f>
+        <f>IF(C97=0,0,N97/C97)</f>
         <v>0</v>
       </c>
       <c r="T97" s="3">
@@ -10241,7 +10241,7 @@
         <v>0</v>
       </c>
       <c r="S98" s="4">
-        <f>IF(C98=0,0,N98/D98)</f>
+        <f>IF(C98=0,0,N98/C98)</f>
         <v>0</v>
       </c>
       <c r="T98" s="3">
@@ -10314,7 +10314,7 @@
         <v>0</v>
       </c>
       <c r="S99" s="4">
-        <f>IF(C99=0,0,N99/D99)</f>
+        <f>IF(C99=0,0,N99/C99)</f>
         <v>0</v>
       </c>
       <c r="T99" s="3">
@@ -10387,7 +10387,7 @@
         <v>207</v>
       </c>
       <c r="S100" s="4">
-        <f>IF(C100=0,0,N100/D100)</f>
+        <f>IF(C100=0,0,N100/C100)</f>
         <v>0</v>
       </c>
       <c r="T100" s="3">
@@ -10460,7 +10460,7 @@
         <v>0</v>
       </c>
       <c r="S101" s="4">
-        <f>IF(C101=0,0,N101/D101)</f>
+        <f>IF(C101=0,0,N101/C101)</f>
         <v>0</v>
       </c>
       <c r="T101" s="3">
@@ -10533,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="S102" s="4">
-        <f>IF(C102=0,0,N102/D102)</f>
+        <f>IF(C102=0,0,N102/C102)</f>
         <v>0</v>
       </c>
       <c r="T102" s="3">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="S103" s="4">
-        <f>IF(C103=0,0,N103/D103)</f>
+        <f>IF(C103=0,0,N103/C103)</f>
         <v>0</v>
       </c>
       <c r="T103" s="3">
@@ -10679,7 +10679,7 @@
         <v>207</v>
       </c>
       <c r="S104" s="4">
-        <f>IF(C104=0,0,N104/D104)</f>
+        <f>IF(C104=0,0,N104/C104)</f>
         <v>0</v>
       </c>
       <c r="T104" s="3">
@@ -10752,7 +10752,7 @@
         <v>207</v>
       </c>
       <c r="S105" s="4">
-        <f>IF(C105=0,0,N105/D105)</f>
+        <f>IF(C105=0,0,N105/C105)</f>
         <v>0</v>
       </c>
       <c r="T105" s="3">
@@ -10825,7 +10825,7 @@
         <v>207</v>
       </c>
       <c r="S106" s="4">
-        <f>IF(C106=0,0,N106/D106)</f>
+        <f>IF(C106=0,0,N106/C106)</f>
         <v>0</v>
       </c>
       <c r="T106" s="3">
@@ -10898,7 +10898,7 @@
         <v>207</v>
       </c>
       <c r="S107" s="4">
-        <f>IF(C107=0,0,N107/D107)</f>
+        <f>IF(C107=0,0,N107/C107)</f>
         <v>0</v>
       </c>
       <c r="T107" s="3">
@@ -10971,7 +10971,7 @@
         <v>207</v>
       </c>
       <c r="S108" s="4">
-        <f>IF(C108=0,0,N108/D108)</f>
+        <f>IF(C108=0,0,N108/C108)</f>
         <v>0</v>
       </c>
       <c r="T108" s="3">
@@ -11044,7 +11044,7 @@
         <v>0</v>
       </c>
       <c r="S109" s="4">
-        <f>IF(C109=0,0,N109/D109)</f>
+        <f>IF(C109=0,0,N109/C109)</f>
         <v>0</v>
       </c>
       <c r="T109" s="3">
@@ -11117,7 +11117,7 @@
         <v>207</v>
       </c>
       <c r="S110" s="4">
-        <f>IF(C110=0,0,N110/D110)</f>
+        <f>IF(C110=0,0,N110/C110)</f>
         <v>0</v>
       </c>
       <c r="T110" s="3">
@@ -11190,7 +11190,7 @@
         <v>207</v>
       </c>
       <c r="S111" s="4">
-        <f>IF(C111=0,0,N111/D111)</f>
+        <f>IF(C111=0,0,N111/C111)</f>
         <v>0</v>
       </c>
       <c r="T111" s="3">
@@ -11263,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="S112" s="4">
-        <f>IF(C112=0,0,N112/D112)</f>
+        <f>IF(C112=0,0,N112/C112)</f>
         <v>0</v>
       </c>
       <c r="T112" s="3">
@@ -11336,7 +11336,7 @@
         <v>207</v>
       </c>
       <c r="S113" s="4">
-        <f>IF(C113=0,0,N113/D113)</f>
+        <f>IF(C113=0,0,N113/C113)</f>
         <v>0</v>
       </c>
       <c r="T113" s="3">
@@ -11409,7 +11409,7 @@
         <v>207</v>
       </c>
       <c r="S114" s="4">
-        <f>IF(C114=0,0,N114/D114)</f>
+        <f>IF(C114=0,0,N114/C114)</f>
         <v>0</v>
       </c>
       <c r="T114" s="3">
@@ -11482,7 +11482,7 @@
         <v>0</v>
       </c>
       <c r="S115" s="4">
-        <f>IF(C115=0,0,N115/D115)</f>
+        <f>IF(C115=0,0,N115/C115)</f>
         <v>0</v>
       </c>
       <c r="T115" s="3">
@@ -11555,7 +11555,7 @@
         <v>0</v>
       </c>
       <c r="S116" s="4">
-        <f>IF(C116=0,0,N116/D116)</f>
+        <f>IF(C116=0,0,N116/C116)</f>
         <v>0</v>
       </c>
       <c r="T116" s="3">
@@ -11628,7 +11628,7 @@
         <v>207</v>
       </c>
       <c r="S117" s="4">
-        <f>IF(C117=0,0,N117/D117)</f>
+        <f>IF(C117=0,0,N117/C117)</f>
         <v>0</v>
       </c>
       <c r="T117" s="3">
@@ -11701,7 +11701,7 @@
         <v>207</v>
       </c>
       <c r="S118" s="4">
-        <f>IF(C118=0,0,N118/D118)</f>
+        <f>IF(C118=0,0,N118/C118)</f>
         <v>0</v>
       </c>
       <c r="T118" s="3">
@@ -11774,7 +11774,7 @@
         <v>0</v>
       </c>
       <c r="S119" s="4">
-        <f>IF(C119=0,0,N119/D119)</f>
+        <f>IF(C119=0,0,N119/C119)</f>
         <v>0</v>
       </c>
       <c r="T119" s="3">
@@ -11847,7 +11847,7 @@
         <v>207</v>
       </c>
       <c r="S120" s="4">
-        <f>IF(C120=0,0,N120/D120)</f>
+        <f>IF(C120=0,0,N120/C120)</f>
         <v>0</v>
       </c>
       <c r="T120" s="3">
@@ -11920,7 +11920,7 @@
         <v>207</v>
       </c>
       <c r="S121" s="4">
-        <f>IF(C121=0,0,N121/D121)</f>
+        <f>IF(C121=0,0,N121/C121)</f>
         <v>0</v>
       </c>
       <c r="T121" s="3">
@@ -11993,7 +11993,7 @@
         <v>207</v>
       </c>
       <c r="S122" s="4">
-        <f>IF(C122=0,0,N122/D122)</f>
+        <f>IF(C122=0,0,N122/C122)</f>
         <v>0</v>
       </c>
       <c r="T122" s="3">
@@ -12066,7 +12066,7 @@
         <v>0</v>
       </c>
       <c r="S123" s="4">
-        <f>IF(C123=0,0,N123/D123)</f>
+        <f>IF(C123=0,0,N123/C123)</f>
         <v>0</v>
       </c>
       <c r="T123" s="3">
@@ -12139,7 +12139,7 @@
         <v>281</v>
       </c>
       <c r="S124" s="4">
-        <f>IF(C124=0,0,N124/D124)</f>
+        <f>IF(C124=0,0,N124/C124)</f>
         <v>0</v>
       </c>
       <c r="T124" s="3">
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="S125" s="4">
-        <f>IF(C125=0,0,N125/D125)</f>
+        <f>IF(C125=0,0,N125/C125)</f>
         <v>0</v>
       </c>
       <c r="T125" s="3">
@@ -12285,7 +12285,7 @@
         <v>281</v>
       </c>
       <c r="S126" s="4">
-        <f>IF(C126=0,0,N126/D126)</f>
+        <f>IF(C126=0,0,N126/C126)</f>
         <v>0</v>
       </c>
       <c r="T126" s="3">
@@ -12358,7 +12358,7 @@
         <v>0</v>
       </c>
       <c r="S127" s="4">
-        <f>IF(C127=0,0,N127/D127)</f>
+        <f>IF(C127=0,0,N127/C127)</f>
         <v>0</v>
       </c>
       <c r="T127" s="3">
@@ -12431,7 +12431,7 @@
         <v>0</v>
       </c>
       <c r="S128" s="4">
-        <f>IF(C128=0,0,N128/D128)</f>
+        <f>IF(C128=0,0,N128/C128)</f>
         <v>0</v>
       </c>
       <c r="T128" s="3">
@@ -12504,7 +12504,7 @@
         <v>0</v>
       </c>
       <c r="S129" s="4">
-        <f>IF(C129=0,0,N129/D129)</f>
+        <f>IF(C129=0,0,N129/C129)</f>
         <v>0</v>
       </c>
       <c r="T129" s="3">
@@ -12577,7 +12577,7 @@
         <v>294</v>
       </c>
       <c r="S130" s="4">
-        <f>IF(C130=0,0,N130/D130)</f>
+        <f>IF(C130=0,0,N130/C130)</f>
         <v>0</v>
       </c>
       <c r="T130" s="3">
@@ -12650,7 +12650,7 @@
         <v>297</v>
       </c>
       <c r="S131" s="4">
-        <f>IF(C131=0,0,N131/D131)</f>
+        <f>IF(C131=0,0,N131/C131)</f>
         <v>0</v>
       </c>
       <c r="T131" s="3">
@@ -12723,7 +12723,7 @@
         <v>297</v>
       </c>
       <c r="S132" s="4">
-        <f>IF(C132=0,0,N132/D132)</f>
+        <f>IF(C132=0,0,N132/C132)</f>
         <v>0</v>
       </c>
       <c r="T132" s="3">
@@ -12796,7 +12796,7 @@
         <v>0</v>
       </c>
       <c r="S133" s="4">
-        <f>IF(C133=0,0,N133/D133)</f>
+        <f>IF(C133=0,0,N133/C133)</f>
         <v>0</v>
       </c>
       <c r="T133" s="3">
@@ -12869,7 +12869,7 @@
         <v>0</v>
       </c>
       <c r="S134" s="4">
-        <f>IF(C134=0,0,N134/D134)</f>
+        <f>IF(C134=0,0,N134/C134)</f>
         <v>0</v>
       </c>
       <c r="T134" s="3">
@@ -12942,7 +12942,7 @@
         <v>297</v>
       </c>
       <c r="S135" s="4">
-        <f>IF(C135=0,0,N135/D135)</f>
+        <f>IF(C135=0,0,N135/C135)</f>
         <v>0</v>
       </c>
       <c r="T135" s="3">
@@ -13015,7 +13015,7 @@
         <v>297</v>
       </c>
       <c r="S136" s="4">
-        <f>IF(C136=0,0,N136/D136)</f>
+        <f>IF(C136=0,0,N136/C136)</f>
         <v>0</v>
       </c>
       <c r="T136" s="3">
@@ -13088,7 +13088,7 @@
         <v>310</v>
       </c>
       <c r="S137" s="4">
-        <f>IF(C137=0,0,N137/D137)</f>
+        <f>IF(C137=0,0,N137/C137)</f>
         <v>0</v>
       </c>
       <c r="T137" s="3">
@@ -13161,7 +13161,7 @@
         <v>0</v>
       </c>
       <c r="S138" s="4">
-        <f>IF(C138=0,0,N138/D138)</f>
+        <f>IF(C138=0,0,N138/C138)</f>
         <v>0</v>
       </c>
       <c r="T138" s="3">
@@ -13234,7 +13234,7 @@
         <v>0</v>
       </c>
       <c r="S139" s="4">
-        <f>IF(C139=0,0,N139/D139)</f>
+        <f>IF(C139=0,0,N139/C139)</f>
         <v>0</v>
       </c>
       <c r="T139" s="3">
@@ -13307,7 +13307,7 @@
         <v>281</v>
       </c>
       <c r="S140" s="4">
-        <f>IF(C140=0,0,N140/D140)</f>
+        <f>IF(C140=0,0,N140/C140)</f>
         <v>0</v>
       </c>
       <c r="T140" s="3">
@@ -13380,7 +13380,7 @@
         <v>294</v>
       </c>
       <c r="S141" s="4">
-        <f>IF(C141=0,0,N141/D141)</f>
+        <f>IF(C141=0,0,N141/C141)</f>
         <v>0</v>
       </c>
       <c r="T141" s="3">
@@ -13453,7 +13453,7 @@
         <v>0</v>
       </c>
       <c r="S142" s="4">
-        <f>IF(C142=0,0,N142/D142)</f>
+        <f>IF(C142=0,0,N142/C142)</f>
         <v>0</v>
       </c>
       <c r="T142" s="3">
@@ -13526,7 +13526,7 @@
         <v>297</v>
       </c>
       <c r="S143" s="4">
-        <f>IF(C143=0,0,N143/D143)</f>
+        <f>IF(C143=0,0,N143/C143)</f>
         <v>0</v>
       </c>
       <c r="T143" s="3">
@@ -13599,7 +13599,7 @@
         <v>0</v>
       </c>
       <c r="S144" s="4">
-        <f>IF(C144=0,0,N144/D144)</f>
+        <f>IF(C144=0,0,N144/C144)</f>
         <v>0</v>
       </c>
       <c r="T144" s="3">
@@ -13672,7 +13672,7 @@
         <v>281</v>
       </c>
       <c r="S145" s="4">
-        <f>IF(C145=0,0,N145/D145)</f>
+        <f>IF(C145=0,0,N145/C145)</f>
         <v>0</v>
       </c>
       <c r="T145" s="3">
@@ -13745,7 +13745,7 @@
         <v>310</v>
       </c>
       <c r="S146" s="4">
-        <f>IF(C146=0,0,N146/D146)</f>
+        <f>IF(C146=0,0,N146/C146)</f>
         <v>0</v>
       </c>
       <c r="T146" s="3">
@@ -13818,7 +13818,7 @@
         <v>331</v>
       </c>
       <c r="S147" s="4">
-        <f>IF(C147=0,0,N147/D147)</f>
+        <f>IF(C147=0,0,N147/C147)</f>
         <v>0</v>
       </c>
       <c r="T147" s="3">
@@ -13891,7 +13891,7 @@
         <v>310</v>
       </c>
       <c r="S148" s="4">
-        <f>IF(C148=0,0,N148/D148)</f>
+        <f>IF(C148=0,0,N148/C148)</f>
         <v>0</v>
       </c>
       <c r="T148" s="3">
@@ -13964,7 +13964,7 @@
         <v>297</v>
       </c>
       <c r="S149" s="4">
-        <f>IF(C149=0,0,N149/D149)</f>
+        <f>IF(C149=0,0,N149/C149)</f>
         <v>0</v>
       </c>
       <c r="T149" s="3">
@@ -14037,7 +14037,7 @@
         <v>297</v>
       </c>
       <c r="S150" s="4">
-        <f>IF(C150=0,0,N150/D150)</f>
+        <f>IF(C150=0,0,N150/C150)</f>
         <v>0</v>
       </c>
       <c r="T150" s="3">
@@ -14110,7 +14110,7 @@
         <v>0</v>
       </c>
       <c r="S151" s="4">
-        <f>IF(C151=0,0,N151/D151)</f>
+        <f>IF(C151=0,0,N151/C151)</f>
         <v>0</v>
       </c>
       <c r="T151" s="3">
@@ -14183,7 +14183,7 @@
         <v>0</v>
       </c>
       <c r="S152" s="4">
-        <f>IF(C152=0,0,N152/D152)</f>
+        <f>IF(C152=0,0,N152/C152)</f>
         <v>0</v>
       </c>
       <c r="T152" s="3">
@@ -14256,7 +14256,7 @@
         <v>0</v>
       </c>
       <c r="S153" s="4">
-        <f>IF(C153=0,0,N153/D153)</f>
+        <f>IF(C153=0,0,N153/C153)</f>
         <v>0</v>
       </c>
       <c r="T153" s="3">
@@ -14329,7 +14329,7 @@
         <v>0</v>
       </c>
       <c r="S154" s="4">
-        <f>IF(C154=0,0,N154/D154)</f>
+        <f>IF(C154=0,0,N154/C154)</f>
         <v>0</v>
       </c>
       <c r="T154" s="3">
@@ -14402,7 +14402,7 @@
         <v>0</v>
       </c>
       <c r="S155" s="4">
-        <f>IF(C155=0,0,N155/D155)</f>
+        <f>IF(C155=0,0,N155/C155)</f>
         <v>0</v>
       </c>
       <c r="T155" s="3">
@@ -14475,7 +14475,7 @@
         <v>0</v>
       </c>
       <c r="S156" s="4">
-        <f>IF(C156=0,0,N156/D156)</f>
+        <f>IF(C156=0,0,N156/C156)</f>
         <v>0</v>
       </c>
       <c r="T156" s="3">
@@ -14548,7 +14548,7 @@
         <v>0</v>
       </c>
       <c r="S157" s="4">
-        <f>IF(C157=0,0,N157/D157)</f>
+        <f>IF(C157=0,0,N157/C157)</f>
         <v>0</v>
       </c>
       <c r="T157" s="3">
@@ -14621,7 +14621,7 @@
         <v>297</v>
       </c>
       <c r="S158" s="4">
-        <f>IF(C158=0,0,N158/D158)</f>
+        <f>IF(C158=0,0,N158/C158)</f>
         <v>0</v>
       </c>
       <c r="T158" s="3">
@@ -14694,7 +14694,7 @@
         <v>0</v>
       </c>
       <c r="S159" s="4">
-        <f>IF(C159=0,0,N159/D159)</f>
+        <f>IF(C159=0,0,N159/C159)</f>
         <v>0</v>
       </c>
       <c r="T159" s="3">
@@ -14767,7 +14767,7 @@
         <v>0</v>
       </c>
       <c r="S160" s="4">
-        <f>IF(C160=0,0,N160/D160)</f>
+        <f>IF(C160=0,0,N160/C160)</f>
         <v>0</v>
       </c>
       <c r="T160" s="3">
@@ -14840,7 +14840,7 @@
         <v>281</v>
       </c>
       <c r="S161" s="4">
-        <f>IF(C161=0,0,N161/D161)</f>
+        <f>IF(C161=0,0,N161/C161)</f>
         <v>0</v>
       </c>
       <c r="T161" s="3">
@@ -14913,7 +14913,7 @@
         <v>0</v>
       </c>
       <c r="S162" s="4">
-        <f>IF(C162=0,0,N162/D162)</f>
+        <f>IF(C162=0,0,N162/C162)</f>
         <v>0</v>
       </c>
       <c r="T162" s="3">
@@ -14986,7 +14986,7 @@
         <v>0</v>
       </c>
       <c r="S163" s="4">
-        <f>IF(C163=0,0,N163/D163)</f>
+        <f>IF(C163=0,0,N163/C163)</f>
         <v>0</v>
       </c>
       <c r="T163" s="3">
@@ -15059,7 +15059,7 @@
         <v>0</v>
       </c>
       <c r="S164" s="4">
-        <f>IF(C164=0,0,N164/D164)</f>
+        <f>IF(C164=0,0,N164/C164)</f>
         <v>0</v>
       </c>
       <c r="T164" s="3">
@@ -15132,7 +15132,7 @@
         <v>0</v>
       </c>
       <c r="S165" s="4">
-        <f>IF(C165=0,0,N165/D165)</f>
+        <f>IF(C165=0,0,N165/C165)</f>
         <v>0</v>
       </c>
       <c r="T165" s="3">
@@ -15205,7 +15205,7 @@
         <v>0</v>
       </c>
       <c r="S166" s="4">
-        <f>IF(C166=0,0,N166/D166)</f>
+        <f>IF(C166=0,0,N166/C166)</f>
         <v>0</v>
       </c>
       <c r="T166" s="3">
@@ -15278,7 +15278,7 @@
         <v>0</v>
       </c>
       <c r="S167" s="4">
-        <f>IF(C167=0,0,N167/D167)</f>
+        <f>IF(C167=0,0,N167/C167)</f>
         <v>0</v>
       </c>
       <c r="T167" s="3">
@@ -15351,7 +15351,7 @@
         <v>281</v>
       </c>
       <c r="S168" s="4">
-        <f>IF(C168=0,0,N168/D168)</f>
+        <f>IF(C168=0,0,N168/C168)</f>
         <v>0</v>
       </c>
       <c r="T168" s="3">
@@ -15424,7 +15424,7 @@
         <v>0</v>
       </c>
       <c r="S169" s="4">
-        <f>IF(C169=0,0,N169/D169)</f>
+        <f>IF(C169=0,0,N169/C169)</f>
         <v>0</v>
       </c>
       <c r="T169" s="3">
@@ -15497,7 +15497,7 @@
         <v>297</v>
       </c>
       <c r="S170" s="4">
-        <f>IF(C170=0,0,N170/D170)</f>
+        <f>IF(C170=0,0,N170/C170)</f>
         <v>0</v>
       </c>
       <c r="T170" s="3">
@@ -15570,7 +15570,7 @@
         <v>0</v>
       </c>
       <c r="S171" s="4">
-        <f>IF(C171=0,0,N171/D171)</f>
+        <f>IF(C171=0,0,N171/C171)</f>
         <v>0</v>
       </c>
       <c r="T171" s="3">
@@ -15643,7 +15643,7 @@
         <v>0</v>
       </c>
       <c r="S172" s="4">
-        <f>IF(C172=0,0,N172/D172)</f>
+        <f>IF(C172=0,0,N172/C172)</f>
         <v>0</v>
       </c>
       <c r="T172" s="3">
@@ -15716,7 +15716,7 @@
         <v>0</v>
       </c>
       <c r="S173" s="4">
-        <f>IF(C173=0,0,N173/D173)</f>
+        <f>IF(C173=0,0,N173/C173)</f>
         <v>0</v>
       </c>
       <c r="T173" s="3">
@@ -15789,7 +15789,7 @@
         <v>281</v>
       </c>
       <c r="S174" s="4">
-        <f>IF(C174=0,0,N174/D174)</f>
+        <f>IF(C174=0,0,N174/C174)</f>
         <v>0</v>
       </c>
       <c r="T174" s="3">
@@ -15862,7 +15862,7 @@
         <v>297</v>
       </c>
       <c r="S175" s="4">
-        <f>IF(C175=0,0,N175/D175)</f>
+        <f>IF(C175=0,0,N175/C175)</f>
         <v>0</v>
       </c>
       <c r="T175" s="3">
@@ -15935,7 +15935,7 @@
         <v>0</v>
       </c>
       <c r="S176" s="4">
-        <f>IF(C176=0,0,N176/D176)</f>
+        <f>IF(C176=0,0,N176/C176)</f>
         <v>0</v>
       </c>
       <c r="T176" s="3">
@@ -16008,7 +16008,7 @@
         <v>0</v>
       </c>
       <c r="S177" s="4">
-        <f>IF(C177=0,0,N177/D177)</f>
+        <f>IF(C177=0,0,N177/C177)</f>
         <v>0</v>
       </c>
       <c r="T177" s="3">
@@ -16081,7 +16081,7 @@
         <v>0</v>
       </c>
       <c r="S178" s="4">
-        <f>IF(C178=0,0,N178/D178)</f>
+        <f>IF(C178=0,0,N178/C178)</f>
         <v>0</v>
       </c>
       <c r="T178" s="3">
@@ -16154,7 +16154,7 @@
         <v>0</v>
       </c>
       <c r="S179" s="4">
-        <f>IF(C179=0,0,N179/D179)</f>
+        <f>IF(C179=0,0,N179/C179)</f>
         <v>0</v>
       </c>
       <c r="T179" s="3">
@@ -16227,7 +16227,7 @@
         <v>281</v>
       </c>
       <c r="S180" s="4">
-        <f>IF(C180=0,0,N180/D180)</f>
+        <f>IF(C180=0,0,N180/C180)</f>
         <v>0</v>
       </c>
       <c r="T180" s="3">
@@ -16300,7 +16300,7 @@
         <v>0</v>
       </c>
       <c r="S181" s="4">
-        <f>IF(C181=0,0,N181/D181)</f>
+        <f>IF(C181=0,0,N181/C181)</f>
         <v>0</v>
       </c>
       <c r="T181" s="3">
@@ -16373,7 +16373,7 @@
         <v>0</v>
       </c>
       <c r="S182" s="4">
-        <f>IF(C182=0,0,N182/D182)</f>
+        <f>IF(C182=0,0,N182/C182)</f>
         <v>0</v>
       </c>
       <c r="T182" s="3">
@@ -16446,7 +16446,7 @@
         <v>281</v>
       </c>
       <c r="S183" s="4">
-        <f>IF(C183=0,0,N183/D183)</f>
+        <f>IF(C183=0,0,N183/C183)</f>
         <v>0</v>
       </c>
       <c r="T183" s="3">
@@ -16519,7 +16519,7 @@
         <v>0</v>
       </c>
       <c r="S184" s="4">
-        <f>IF(C184=0,0,N184/D184)</f>
+        <f>IF(C184=0,0,N184/C184)</f>
         <v>0</v>
       </c>
       <c r="T184" s="3">
@@ -16592,7 +16592,7 @@
         <v>281</v>
       </c>
       <c r="S185" s="4">
-        <f>IF(C185=0,0,N185/D185)</f>
+        <f>IF(C185=0,0,N185/C185)</f>
         <v>0</v>
       </c>
       <c r="T185" s="3">
@@ -16665,7 +16665,7 @@
         <v>0</v>
       </c>
       <c r="S186" s="4">
-        <f>IF(C186=0,0,N186/D186)</f>
+        <f>IF(C186=0,0,N186/C186)</f>
         <v>0</v>
       </c>
       <c r="T186" s="3">
@@ -16738,7 +16738,7 @@
         <v>0</v>
       </c>
       <c r="S187" s="4">
-        <f>IF(C187=0,0,N187/D187)</f>
+        <f>IF(C187=0,0,N187/C187)</f>
         <v>0</v>
       </c>
       <c r="T187" s="3">
@@ -16811,7 +16811,7 @@
         <v>297</v>
       </c>
       <c r="S188" s="4">
-        <f>IF(C188=0,0,N188/D188)</f>
+        <f>IF(C188=0,0,N188/C188)</f>
         <v>0</v>
       </c>
       <c r="T188" s="3">
@@ -16884,7 +16884,7 @@
         <v>294</v>
       </c>
       <c r="S189" s="4">
-        <f>IF(C189=0,0,N189/D189)</f>
+        <f>IF(C189=0,0,N189/C189)</f>
         <v>0</v>
       </c>
       <c r="T189" s="3">
@@ -16957,7 +16957,7 @@
         <v>297</v>
       </c>
       <c r="S190" s="4">
-        <f>IF(C190=0,0,N190/D190)</f>
+        <f>IF(C190=0,0,N190/C190)</f>
         <v>0</v>
       </c>
       <c r="T190" s="3">
@@ -17030,7 +17030,7 @@
         <v>294</v>
       </c>
       <c r="S191" s="4">
-        <f>IF(C191=0,0,N191/D191)</f>
+        <f>IF(C191=0,0,N191/C191)</f>
         <v>0</v>
       </c>
       <c r="T191" s="3">
@@ -17103,7 +17103,7 @@
         <v>0</v>
       </c>
       <c r="S192" s="4">
-        <f>IF(C192=0,0,N192/D192)</f>
+        <f>IF(C192=0,0,N192/C192)</f>
         <v>0</v>
       </c>
       <c r="T192" s="3">
@@ -17176,7 +17176,7 @@
         <v>0</v>
       </c>
       <c r="S193" s="4">
-        <f>IF(C193=0,0,N193/D193)</f>
+        <f>IF(C193=0,0,N193/C193)</f>
         <v>0</v>
       </c>
       <c r="T193" s="3">
@@ -17249,7 +17249,7 @@
         <v>0</v>
       </c>
       <c r="S194" s="4">
-        <f>IF(C194=0,0,N194/D194)</f>
+        <f>IF(C194=0,0,N194/C194)</f>
         <v>0</v>
       </c>
       <c r="T194" s="3">
@@ -17322,7 +17322,7 @@
         <v>0</v>
       </c>
       <c r="S195" s="4">
-        <f>IF(C195=0,0,N195/D195)</f>
+        <f>IF(C195=0,0,N195/C195)</f>
         <v>0</v>
       </c>
       <c r="T195" s="3">
@@ -17395,7 +17395,7 @@
         <v>281</v>
       </c>
       <c r="S196" s="4">
-        <f>IF(C196=0,0,N196/D196)</f>
+        <f>IF(C196=0,0,N196/C196)</f>
         <v>0</v>
       </c>
       <c r="T196" s="3">
@@ -17468,7 +17468,7 @@
         <v>294</v>
       </c>
       <c r="S197" s="4">
-        <f>IF(C197=0,0,N197/D197)</f>
+        <f>IF(C197=0,0,N197/C197)</f>
         <v>0</v>
       </c>
       <c r="T197" s="3">
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="S198" s="4">
-        <f>IF(C198=0,0,N198/D198)</f>
+        <f>IF(C198=0,0,N198/C198)</f>
         <v>0</v>
       </c>
       <c r="T198" s="3">
@@ -17614,7 +17614,7 @@
         <v>281</v>
       </c>
       <c r="S199" s="4">
-        <f>IF(C199=0,0,N199/D199)</f>
+        <f>IF(C199=0,0,N199/C199)</f>
         <v>0</v>
       </c>
       <c r="T199" s="3">
@@ -17687,7 +17687,7 @@
         <v>0</v>
       </c>
       <c r="S200" s="4">
-        <f>IF(C200=0,0,N200/D200)</f>
+        <f>IF(C200=0,0,N200/C200)</f>
         <v>0</v>
       </c>
       <c r="T200" s="3">
@@ -17760,7 +17760,7 @@
         <v>281</v>
       </c>
       <c r="S201" s="4">
-        <f>IF(C201=0,0,N201/D201)</f>
+        <f>IF(C201=0,0,N201/C201)</f>
         <v>0</v>
       </c>
       <c r="T201" s="3">
@@ -17833,7 +17833,7 @@
         <v>294</v>
       </c>
       <c r="S202" s="4">
-        <f>IF(C202=0,0,N202/D202)</f>
+        <f>IF(C202=0,0,N202/C202)</f>
         <v>0</v>
       </c>
       <c r="T202" s="3">
@@ -17906,7 +17906,7 @@
         <v>0</v>
       </c>
       <c r="S203" s="4">
-        <f>IF(C203=0,0,N203/D203)</f>
+        <f>IF(C203=0,0,N203/C203)</f>
         <v>0</v>
       </c>
       <c r="T203" s="3">
@@ -17979,7 +17979,7 @@
         <v>0</v>
       </c>
       <c r="S204" s="4">
-        <f>IF(C204=0,0,N204/D204)</f>
+        <f>IF(C204=0,0,N204/C204)</f>
         <v>0</v>
       </c>
       <c r="T204" s="3">
@@ -18052,7 +18052,7 @@
         <v>0</v>
       </c>
       <c r="S205" s="4">
-        <f>IF(C205=0,0,N205/D205)</f>
+        <f>IF(C205=0,0,N205/C205)</f>
         <v>0</v>
       </c>
       <c r="T205" s="3">
@@ -18125,7 +18125,7 @@
         <v>0</v>
       </c>
       <c r="S206" s="4">
-        <f>IF(C206=0,0,N206/D206)</f>
+        <f>IF(C206=0,0,N206/C206)</f>
         <v>0</v>
       </c>
       <c r="T206" s="3">
@@ -18198,7 +18198,7 @@
         <v>297</v>
       </c>
       <c r="S207" s="4">
-        <f>IF(C207=0,0,N207/D207)</f>
+        <f>IF(C207=0,0,N207/C207)</f>
         <v>0</v>
       </c>
       <c r="T207" s="3">
@@ -18271,7 +18271,7 @@
         <v>297</v>
       </c>
       <c r="S208" s="4">
-        <f>IF(C208=0,0,N208/D208)</f>
+        <f>IF(C208=0,0,N208/C208)</f>
         <v>0</v>
       </c>
       <c r="T208" s="3">
@@ -18344,7 +18344,7 @@
         <v>297</v>
       </c>
       <c r="S209" s="4">
-        <f>IF(C209=0,0,N209/D209)</f>
+        <f>IF(C209=0,0,N209/C209)</f>
         <v>0</v>
       </c>
       <c r="T209" s="3">
@@ -18417,7 +18417,7 @@
         <v>0</v>
       </c>
       <c r="S210" s="4">
-        <f>IF(C210=0,0,N210/D210)</f>
+        <f>IF(C210=0,0,N210/C210)</f>
         <v>0</v>
       </c>
       <c r="T210" s="3">
@@ -18490,7 +18490,7 @@
         <v>297</v>
       </c>
       <c r="S211" s="4">
-        <f>IF(C211=0,0,N211/D211)</f>
+        <f>IF(C211=0,0,N211/C211)</f>
         <v>0</v>
       </c>
       <c r="T211" s="3">
@@ -18563,7 +18563,7 @@
         <v>0</v>
       </c>
       <c r="S212" s="4">
-        <f>IF(C212=0,0,N212/D212)</f>
+        <f>IF(C212=0,0,N212/C212)</f>
         <v>0</v>
       </c>
       <c r="T212" s="3">
@@ -18636,7 +18636,7 @@
         <v>0</v>
       </c>
       <c r="S213" s="4">
-        <f>IF(C213=0,0,N213/D213)</f>
+        <f>IF(C213=0,0,N213/C213)</f>
         <v>0</v>
       </c>
       <c r="T213" s="3">
@@ -18709,7 +18709,7 @@
         <v>0</v>
       </c>
       <c r="S214" s="4">
-        <f>IF(C214=0,0,N214/D214)</f>
+        <f>IF(C214=0,0,N214/C214)</f>
         <v>0</v>
       </c>
       <c r="T214" s="3">
@@ -18782,7 +18782,7 @@
         <v>0</v>
       </c>
       <c r="S215" s="4">
-        <f>IF(C215=0,0,N215/D215)</f>
+        <f>IF(C215=0,0,N215/C215)</f>
         <v>0</v>
       </c>
       <c r="T215" s="3">
@@ -18855,7 +18855,7 @@
         <v>0</v>
       </c>
       <c r="S216" s="4">
-        <f>IF(C216=0,0,N216/D216)</f>
+        <f>IF(C216=0,0,N216/C216)</f>
         <v>0</v>
       </c>
       <c r="T216" s="3">
@@ -18928,7 +18928,7 @@
         <v>0</v>
       </c>
       <c r="S217" s="4">
-        <f>IF(C217=0,0,N217/D217)</f>
+        <f>IF(C217=0,0,N217/C217)</f>
         <v>0</v>
       </c>
       <c r="T217" s="3">
@@ -19001,7 +19001,7 @@
         <v>0</v>
       </c>
       <c r="S218" s="4">
-        <f>IF(C218=0,0,N218/D218)</f>
+        <f>IF(C218=0,0,N218/C218)</f>
         <v>0</v>
       </c>
       <c r="T218" s="3">
@@ -19074,7 +19074,7 @@
         <v>0</v>
       </c>
       <c r="S219" s="4">
-        <f>IF(C219=0,0,N219/D219)</f>
+        <f>IF(C219=0,0,N219/C219)</f>
         <v>0</v>
       </c>
       <c r="T219" s="3">
@@ -19147,7 +19147,7 @@
         <v>0</v>
       </c>
       <c r="S220" s="4">
-        <f>IF(C220=0,0,N220/D220)</f>
+        <f>IF(C220=0,0,N220/C220)</f>
         <v>0</v>
       </c>
       <c r="T220" s="3">
@@ -19220,7 +19220,7 @@
         <v>0</v>
       </c>
       <c r="S221" s="4">
-        <f>IF(C221=0,0,N221/D221)</f>
+        <f>IF(C221=0,0,N221/C221)</f>
         <v>0</v>
       </c>
       <c r="T221" s="3">
@@ -19293,7 +19293,7 @@
         <v>0</v>
       </c>
       <c r="S222" s="4">
-        <f>IF(C222=0,0,N222/D222)</f>
+        <f>IF(C222=0,0,N222/C222)</f>
         <v>0</v>
       </c>
       <c r="T222" s="3">
@@ -19366,7 +19366,7 @@
         <v>294</v>
       </c>
       <c r="S223" s="4">
-        <f>IF(C223=0,0,N223/D223)</f>
+        <f>IF(C223=0,0,N223/C223)</f>
         <v>0</v>
       </c>
       <c r="T223" s="3">
@@ -19439,7 +19439,7 @@
         <v>294</v>
       </c>
       <c r="S224" s="4">
-        <f>IF(C224=0,0,N224/D224)</f>
+        <f>IF(C224=0,0,N224/C224)</f>
         <v>0</v>
       </c>
       <c r="T224" s="3">
@@ -19512,7 +19512,7 @@
         <v>297</v>
       </c>
       <c r="S225" s="4">
-        <f>IF(C225=0,0,N225/D225)</f>
+        <f>IF(C225=0,0,N225/C225)</f>
         <v>0</v>
       </c>
       <c r="T225" s="3">
@@ -19585,7 +19585,7 @@
         <v>297</v>
       </c>
       <c r="S226" s="4">
-        <f>IF(C226=0,0,N226/D226)</f>
+        <f>IF(C226=0,0,N226/C226)</f>
         <v>0</v>
       </c>
       <c r="T226" s="3">
@@ -19658,7 +19658,7 @@
         <v>297</v>
       </c>
       <c r="S227" s="4">
-        <f>IF(C227=0,0,N227/D227)</f>
+        <f>IF(C227=0,0,N227/C227)</f>
         <v>0</v>
       </c>
       <c r="T227" s="3">
@@ -19731,7 +19731,7 @@
         <v>297</v>
       </c>
       <c r="S228" s="4">
-        <f>IF(C228=0,0,N228/D228)</f>
+        <f>IF(C228=0,0,N228/C228)</f>
         <v>0</v>
       </c>
       <c r="T228" s="3">
@@ -19804,7 +19804,7 @@
         <v>0</v>
       </c>
       <c r="S229" s="4">
-        <f>IF(C229=0,0,N229/D229)</f>
+        <f>IF(C229=0,0,N229/C229)</f>
         <v>0</v>
       </c>
       <c r="T229" s="3">
@@ -19877,7 +19877,7 @@
         <v>0</v>
       </c>
       <c r="S230" s="4">
-        <f>IF(C230=0,0,N230/D230)</f>
+        <f>IF(C230=0,0,N230/C230)</f>
         <v>0</v>
       </c>
       <c r="T230" s="3">
@@ -19950,7 +19950,7 @@
         <v>0</v>
       </c>
       <c r="S231" s="4">
-        <f>IF(C231=0,0,N231/D231)</f>
+        <f>IF(C231=0,0,N231/C231)</f>
         <v>0</v>
       </c>
       <c r="T231" s="3">
@@ -20023,7 +20023,7 @@
         <v>0</v>
       </c>
       <c r="S232" s="4">
-        <f>IF(C232=0,0,N232/D232)</f>
+        <f>IF(C232=0,0,N232/C232)</f>
         <v>0</v>
       </c>
       <c r="T232" s="3">
@@ -20096,7 +20096,7 @@
         <v>0</v>
       </c>
       <c r="S233" s="4">
-        <f>IF(C233=0,0,N233/D233)</f>
+        <f>IF(C233=0,0,N233/C233)</f>
         <v>0</v>
       </c>
       <c r="T233" s="3">
@@ -20169,7 +20169,7 @@
         <v>310</v>
       </c>
       <c r="S234" s="4">
-        <f>IF(C234=0,0,N234/D234)</f>
+        <f>IF(C234=0,0,N234/C234)</f>
         <v>0</v>
       </c>
       <c r="T234" s="3">
@@ -20242,7 +20242,7 @@
         <v>0</v>
       </c>
       <c r="S235" s="4">
-        <f>IF(C235=0,0,N235/D235)</f>
+        <f>IF(C235=0,0,N235/C235)</f>
         <v>0</v>
       </c>
       <c r="T235" s="3">
@@ -20315,7 +20315,7 @@
         <v>281</v>
       </c>
       <c r="S236" s="4">
-        <f>IF(C236=0,0,N236/D236)</f>
+        <f>IF(C236=0,0,N236/C236)</f>
         <v>0</v>
       </c>
       <c r="T236" s="3">
@@ -20388,7 +20388,7 @@
         <v>0</v>
       </c>
       <c r="S237" s="4">
-        <f>IF(C237=0,0,N237/D237)</f>
+        <f>IF(C237=0,0,N237/C237)</f>
         <v>0</v>
       </c>
       <c r="T237" s="3">
@@ -20461,7 +20461,7 @@
         <v>0</v>
       </c>
       <c r="S238" s="4">
-        <f>IF(C238=0,0,N238/D238)</f>
+        <f>IF(C238=0,0,N238/C238)</f>
         <v>0</v>
       </c>
       <c r="T238" s="3">
@@ -20534,7 +20534,7 @@
         <v>0</v>
       </c>
       <c r="S239" s="4">
-        <f>IF(C239=0,0,N239/D239)</f>
+        <f>IF(C239=0,0,N239/C239)</f>
         <v>0</v>
       </c>
       <c r="T239" s="3">
@@ -20607,7 +20607,7 @@
         <v>0</v>
       </c>
       <c r="S240" s="4">
-        <f>IF(C240=0,0,N240/D240)</f>
+        <f>IF(C240=0,0,N240/C240)</f>
         <v>0</v>
       </c>
       <c r="T240" s="3">
@@ -20680,7 +20680,7 @@
         <v>0</v>
       </c>
       <c r="S241" s="4">
-        <f>IF(C241=0,0,N241/D241)</f>
+        <f>IF(C241=0,0,N241/C241)</f>
         <v>0</v>
       </c>
       <c r="T241" s="3">
@@ -20753,7 +20753,7 @@
         <v>0</v>
       </c>
       <c r="S242" s="4">
-        <f>IF(C242=0,0,N242/D242)</f>
+        <f>IF(C242=0,0,N242/C242)</f>
         <v>0</v>
       </c>
       <c r="T242" s="3">
@@ -20826,7 +20826,7 @@
         <v>281</v>
       </c>
       <c r="S243" s="4">
-        <f>IF(C243=0,0,N243/D243)</f>
+        <f>IF(C243=0,0,N243/C243)</f>
         <v>0</v>
       </c>
       <c r="T243" s="3">
@@ -20899,7 +20899,7 @@
         <v>0</v>
       </c>
       <c r="S244" s="4">
-        <f>IF(C244=0,0,N244/D244)</f>
+        <f>IF(C244=0,0,N244/C244)</f>
         <v>0</v>
       </c>
       <c r="T244" s="3">
@@ -20972,7 +20972,7 @@
         <v>297</v>
       </c>
       <c r="S245" s="4">
-        <f>IF(C245=0,0,N245/D245)</f>
+        <f>IF(C245=0,0,N245/C245)</f>
         <v>0</v>
       </c>
       <c r="T245" s="3">
@@ -21045,7 +21045,7 @@
         <v>0</v>
       </c>
       <c r="S246" s="4">
-        <f>IF(C246=0,0,N246/D246)</f>
+        <f>IF(C246=0,0,N246/C246)</f>
         <v>0</v>
       </c>
       <c r="T246" s="3">
@@ -21118,7 +21118,7 @@
         <v>0</v>
       </c>
       <c r="S247" s="4">
-        <f>IF(C247=0,0,N247/D247)</f>
+        <f>IF(C247=0,0,N247/C247)</f>
         <v>0</v>
       </c>
       <c r="T247" s="3">
@@ -21191,7 +21191,7 @@
         <v>281</v>
       </c>
       <c r="S248" s="4">
-        <f>IF(C248=0,0,N248/D248)</f>
+        <f>IF(C248=0,0,N248/C248)</f>
         <v>0</v>
       </c>
       <c r="T248" s="3">
@@ -21264,7 +21264,7 @@
         <v>0</v>
       </c>
       <c r="S249" s="4">
-        <f>IF(C249=0,0,N249/D249)</f>
+        <f>IF(C249=0,0,N249/C249)</f>
         <v>0</v>
       </c>
       <c r="T249" s="3">
@@ -21337,7 +21337,7 @@
         <v>0</v>
       </c>
       <c r="S250" s="4">
-        <f>IF(C250=0,0,N250/D250)</f>
+        <f>IF(C250=0,0,N250/C250)</f>
         <v>0</v>
       </c>
       <c r="T250" s="3">
@@ -21410,7 +21410,7 @@
         <v>0</v>
       </c>
       <c r="S251" s="4">
-        <f>IF(C251=0,0,N251/D251)</f>
+        <f>IF(C251=0,0,N251/C251)</f>
         <v>0</v>
       </c>
       <c r="T251" s="3">
@@ -21483,7 +21483,7 @@
         <v>0</v>
       </c>
       <c r="S252" s="4">
-        <f>IF(C252=0,0,N252/D252)</f>
+        <f>IF(C252=0,0,N252/C252)</f>
         <v>0</v>
       </c>
       <c r="T252" s="3">
@@ -21556,7 +21556,7 @@
         <v>0</v>
       </c>
       <c r="S253" s="4">
-        <f>IF(C253=0,0,N253/D253)</f>
+        <f>IF(C253=0,0,N253/C253)</f>
         <v>0</v>
       </c>
       <c r="T253" s="3">
@@ -21629,7 +21629,7 @@
         <v>0</v>
       </c>
       <c r="S254" s="4">
-        <f>IF(C254=0,0,N254/D254)</f>
+        <f>IF(C254=0,0,N254/C254)</f>
         <v>0</v>
       </c>
       <c r="T254" s="3">
@@ -21702,7 +21702,7 @@
         <v>281</v>
       </c>
       <c r="S255" s="4">
-        <f>IF(C255=0,0,N255/D255)</f>
+        <f>IF(C255=0,0,N255/C255)</f>
         <v>0</v>
       </c>
       <c r="T255" s="3">
@@ -21775,7 +21775,7 @@
         <v>297</v>
       </c>
       <c r="S256" s="4">
-        <f>IF(C256=0,0,N256/D256)</f>
+        <f>IF(C256=0,0,N256/C256)</f>
         <v>0</v>
       </c>
       <c r="T256" s="3">
@@ -21848,7 +21848,7 @@
         <v>297</v>
       </c>
       <c r="S257" s="4">
-        <f>IF(C257=0,0,N257/D257)</f>
+        <f>IF(C257=0,0,N257/C257)</f>
         <v>0</v>
       </c>
       <c r="T257" s="3">
@@ -21921,7 +21921,7 @@
         <v>0</v>
       </c>
       <c r="S258" s="4">
-        <f>IF(C258=0,0,N258/D258)</f>
+        <f>IF(C258=0,0,N258/C258)</f>
         <v>0</v>
       </c>
       <c r="T258" s="3">
@@ -21994,7 +21994,7 @@
         <v>0</v>
       </c>
       <c r="S259" s="4">
-        <f>IF(C259=0,0,N259/D259)</f>
+        <f>IF(C259=0,0,N259/C259)</f>
         <v>0</v>
       </c>
       <c r="T259" s="3">
@@ -22067,7 +22067,7 @@
         <v>294</v>
       </c>
       <c r="S260" s="4">
-        <f>IF(C260=0,0,N260/D260)</f>
+        <f>IF(C260=0,0,N260/C260)</f>
         <v>0</v>
       </c>
       <c r="T260" s="3">
@@ -22140,7 +22140,7 @@
         <v>294</v>
       </c>
       <c r="S261" s="4">
-        <f>IF(C261=0,0,N261/D261)</f>
+        <f>IF(C261=0,0,N261/C261)</f>
         <v>0</v>
       </c>
       <c r="T261" s="3">
@@ -22213,7 +22213,7 @@
         <v>0</v>
       </c>
       <c r="S262" s="4">
-        <f>IF(C262=0,0,N262/D262)</f>
+        <f>IF(C262=0,0,N262/C262)</f>
         <v>0</v>
       </c>
       <c r="T262" s="3">
@@ -22286,7 +22286,7 @@
         <v>0</v>
       </c>
       <c r="S263" s="4">
-        <f>IF(C263=0,0,N263/D263)</f>
+        <f>IF(C263=0,0,N263/C263)</f>
         <v>0</v>
       </c>
       <c r="T263" s="3">
@@ -22359,7 +22359,7 @@
         <v>0</v>
       </c>
       <c r="S264" s="4">
-        <f>IF(C264=0,0,N264/D264)</f>
+        <f>IF(C264=0,0,N264/C264)</f>
         <v>0</v>
       </c>
       <c r="T264" s="3">
@@ -22432,7 +22432,7 @@
         <v>0</v>
       </c>
       <c r="S265" s="4">
-        <f>IF(C265=0,0,N265/D265)</f>
+        <f>IF(C265=0,0,N265/C265)</f>
         <v>0</v>
       </c>
       <c r="T265" s="3">
@@ -22505,7 +22505,7 @@
         <v>294</v>
       </c>
       <c r="S266" s="4">
-        <f>IF(C266=0,0,N266/D266)</f>
+        <f>IF(C266=0,0,N266/C266)</f>
         <v>0</v>
       </c>
       <c r="T266" s="3">
@@ -22578,7 +22578,7 @@
         <v>0</v>
       </c>
       <c r="S267" s="4">
-        <f>IF(C267=0,0,N267/D267)</f>
+        <f>IF(C267=0,0,N267/C267)</f>
         <v>0</v>
       </c>
       <c r="T267" s="3">
@@ -22651,7 +22651,7 @@
         <v>0</v>
       </c>
       <c r="S268" s="4">
-        <f>IF(C268=0,0,N268/D268)</f>
+        <f>IF(C268=0,0,N268/C268)</f>
         <v>0</v>
       </c>
       <c r="T268" s="3">
@@ -22724,7 +22724,7 @@
         <v>0</v>
       </c>
       <c r="S269" s="4">
-        <f>IF(C269=0,0,N269/D269)</f>
+        <f>IF(C269=0,0,N269/C269)</f>
         <v>0</v>
       </c>
       <c r="T269" s="3">
@@ -22797,7 +22797,7 @@
         <v>0</v>
       </c>
       <c r="S270" s="4">
-        <f>IF(C270=0,0,N270/D270)</f>
+        <f>IF(C270=0,0,N270/C270)</f>
         <v>0</v>
       </c>
       <c r="T270" s="3">
@@ -22870,7 +22870,7 @@
         <v>331</v>
       </c>
       <c r="S271" s="4">
-        <f>IF(C271=0,0,N271/D271)</f>
+        <f>IF(C271=0,0,N271/C271)</f>
         <v>0</v>
       </c>
       <c r="T271" s="3">
@@ -22943,7 +22943,7 @@
         <v>0</v>
       </c>
       <c r="S272" s="4">
-        <f>IF(C272=0,0,N272/D272)</f>
+        <f>IF(C272=0,0,N272/C272)</f>
         <v>0</v>
       </c>
       <c r="T272" s="3">
@@ -23016,7 +23016,7 @@
         <v>0</v>
       </c>
       <c r="S273" s="4">
-        <f>IF(C273=0,0,N273/D273)</f>
+        <f>IF(C273=0,0,N273/C273)</f>
         <v>0</v>
       </c>
       <c r="T273" s="3">
@@ -23089,7 +23089,7 @@
         <v>310</v>
       </c>
       <c r="S274" s="4">
-        <f>IF(C274=0,0,N274/D274)</f>
+        <f>IF(C274=0,0,N274/C274)</f>
         <v>0</v>
       </c>
       <c r="T274" s="3">
@@ -23162,7 +23162,7 @@
         <v>331</v>
       </c>
       <c r="S275" s="4">
-        <f>IF(C275=0,0,N275/D275)</f>
+        <f>IF(C275=0,0,N275/C275)</f>
         <v>0</v>
       </c>
       <c r="T275" s="3">
@@ -23235,7 +23235,7 @@
         <v>310</v>
       </c>
       <c r="S276" s="4">
-        <f>IF(C276=0,0,N276/D276)</f>
+        <f>IF(C276=0,0,N276/C276)</f>
         <v>0</v>
       </c>
       <c r="T276" s="3">
@@ -23308,7 +23308,7 @@
         <v>310</v>
       </c>
       <c r="S277" s="4">
-        <f>IF(C277=0,0,N277/D277)</f>
+        <f>IF(C277=0,0,N277/C277)</f>
         <v>0</v>
       </c>
       <c r="T277" s="3">
@@ -23381,7 +23381,7 @@
         <v>0</v>
       </c>
       <c r="S278" s="4">
-        <f>IF(C278=0,0,N278/D278)</f>
+        <f>IF(C278=0,0,N278/C278)</f>
         <v>0</v>
       </c>
       <c r="T278" s="3">
@@ -23454,7 +23454,7 @@
         <v>310</v>
       </c>
       <c r="S279" s="4">
-        <f>IF(C279=0,0,N279/D279)</f>
+        <f>IF(C279=0,0,N279/C279)</f>
         <v>0</v>
       </c>
       <c r="T279" s="3">
@@ -23527,7 +23527,7 @@
         <v>310</v>
       </c>
       <c r="S280" s="4">
-        <f>IF(C280=0,0,N280/D280)</f>
+        <f>IF(C280=0,0,N280/C280)</f>
         <v>0</v>
       </c>
       <c r="T280" s="3">
@@ -23600,7 +23600,7 @@
         <v>310</v>
       </c>
       <c r="S281" s="4">
-        <f>IF(C281=0,0,N281/D281)</f>
+        <f>IF(C281=0,0,N281/C281)</f>
         <v>0</v>
       </c>
       <c r="T281" s="3">
@@ -23673,7 +23673,7 @@
         <v>310</v>
       </c>
       <c r="S282" s="4">
-        <f>IF(C282=0,0,N282/D282)</f>
+        <f>IF(C282=0,0,N282/C282)</f>
         <v>0</v>
       </c>
       <c r="T282" s="3">
@@ -23746,7 +23746,7 @@
         <v>310</v>
       </c>
       <c r="S283" s="4">
-        <f>IF(C283=0,0,N283/D283)</f>
+        <f>IF(C283=0,0,N283/C283)</f>
         <v>0</v>
       </c>
       <c r="T283" s="3">
@@ -23819,7 +23819,7 @@
         <v>0</v>
       </c>
       <c r="S284" s="4">
-        <f>IF(C284=0,0,N284/D284)</f>
+        <f>IF(C284=0,0,N284/C284)</f>
         <v>0</v>
       </c>
       <c r="T284" s="3">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="S285" s="4">
-        <f>IF(C285=0,0,N285/D285)</f>
+        <f>IF(C285=0,0,N285/C285)</f>
         <v>0</v>
       </c>
       <c r="T285" s="3">
@@ -23965,7 +23965,7 @@
         <v>0</v>
       </c>
       <c r="S286" s="4">
-        <f>IF(C286=0,0,N286/D286)</f>
+        <f>IF(C286=0,0,N286/C286)</f>
         <v>0</v>
       </c>
       <c r="T286" s="3">
@@ -24038,7 +24038,7 @@
         <v>0</v>
       </c>
       <c r="S287" s="4">
-        <f>IF(C287=0,0,N287/D287)</f>
+        <f>IF(C287=0,0,N287/C287)</f>
         <v>0</v>
       </c>
       <c r="T287" s="3">
@@ -24111,7 +24111,7 @@
         <v>0</v>
       </c>
       <c r="S288" s="4">
-        <f>IF(C288=0,0,N288/D288)</f>
+        <f>IF(C288=0,0,N288/C288)</f>
         <v>0</v>
       </c>
       <c r="T288" s="3">
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="S289" s="4">
-        <f>IF(C289=0,0,N289/D289)</f>
+        <f>IF(C289=0,0,N289/C289)</f>
         <v>0</v>
       </c>
       <c r="T289" s="3">
@@ -24257,7 +24257,7 @@
         <v>0</v>
       </c>
       <c r="S290" s="4">
-        <f>IF(C290=0,0,N290/D290)</f>
+        <f>IF(C290=0,0,N290/C290)</f>
         <v>0</v>
       </c>
       <c r="T290" s="3">
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="S291" s="4">
-        <f>IF(C291=0,0,N291/D291)</f>
+        <f>IF(C291=0,0,N291/C291)</f>
         <v>0</v>
       </c>
       <c r="T291" s="3">
@@ -24403,7 +24403,7 @@
         <v>0</v>
       </c>
       <c r="S292" s="4">
-        <f>IF(C292=0,0,N292/D292)</f>
+        <f>IF(C292=0,0,N292/C292)</f>
         <v>0</v>
       </c>
       <c r="T292" s="3">
@@ -24476,7 +24476,7 @@
         <v>0</v>
       </c>
       <c r="S293" s="4">
-        <f>IF(C293=0,0,N293/D293)</f>
+        <f>IF(C293=0,0,N293/C293)</f>
         <v>0</v>
       </c>
       <c r="T293" s="3">
@@ -24549,7 +24549,7 @@
         <v>0</v>
       </c>
       <c r="S294" s="4">
-        <f>IF(C294=0,0,N294/D294)</f>
+        <f>IF(C294=0,0,N294/C294)</f>
         <v>0</v>
       </c>
       <c r="T294" s="3">
@@ -24622,7 +24622,7 @@
         <v>0</v>
       </c>
       <c r="S295" s="4">
-        <f>IF(C295=0,0,N295/D295)</f>
+        <f>IF(C295=0,0,N295/C295)</f>
         <v>0</v>
       </c>
       <c r="T295" s="3">
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="S296" s="4">
-        <f>IF(C296=0,0,N296/D296)</f>
+        <f>IF(C296=0,0,N296/C296)</f>
         <v>0</v>
       </c>
       <c r="T296" s="3">
@@ -24768,7 +24768,7 @@
         <v>0</v>
       </c>
       <c r="S297" s="4">
-        <f>IF(C297=0,0,N297/D297)</f>
+        <f>IF(C297=0,0,N297/C297)</f>
         <v>0</v>
       </c>
       <c r="T297" s="3">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="S298" s="4">
-        <f>IF(C298=0,0,N298/D298)</f>
+        <f>IF(C298=0,0,N298/C298)</f>
         <v>0</v>
       </c>
       <c r="T298" s="3">
@@ -24914,7 +24914,7 @@
         <v>0</v>
       </c>
       <c r="S299" s="4">
-        <f>IF(C299=0,0,N299/D299)</f>
+        <f>IF(C299=0,0,N299/C299)</f>
         <v>0</v>
       </c>
       <c r="T299" s="3">
@@ -24987,7 +24987,7 @@
         <v>0</v>
       </c>
       <c r="S300" s="4">
-        <f>IF(C300=0,0,N300/D300)</f>
+        <f>IF(C300=0,0,N300/C300)</f>
         <v>0</v>
       </c>
       <c r="T300" s="3">
@@ -25060,7 +25060,7 @@
         <v>0</v>
       </c>
       <c r="S301" s="4">
-        <f>IF(C301=0,0,N301/D301)</f>
+        <f>IF(C301=0,0,N301/C301)</f>
         <v>0</v>
       </c>
       <c r="T301" s="3">
@@ -25133,7 +25133,7 @@
         <v>0</v>
       </c>
       <c r="S302" s="4">
-        <f>IF(C302=0,0,N302/D302)</f>
+        <f>IF(C302=0,0,N302/C302)</f>
         <v>0</v>
       </c>
       <c r="T302" s="3">
@@ -25206,7 +25206,7 @@
         <v>331</v>
       </c>
       <c r="S303" s="4">
-        <f>IF(C303=0,0,N303/D303)</f>
+        <f>IF(C303=0,0,N303/C303)</f>
         <v>0</v>
       </c>
       <c r="T303" s="3">
@@ -25279,7 +25279,7 @@
         <v>0</v>
       </c>
       <c r="S304" s="4">
-        <f>IF(C304=0,0,N304/D304)</f>
+        <f>IF(C304=0,0,N304/C304)</f>
         <v>0</v>
       </c>
       <c r="T304" s="3">
@@ -25352,7 +25352,7 @@
         <v>0</v>
       </c>
       <c r="S305" s="4">
-        <f>IF(C305=0,0,N305/D305)</f>
+        <f>IF(C305=0,0,N305/C305)</f>
         <v>0</v>
       </c>
       <c r="T305" s="3">
@@ -25425,7 +25425,7 @@
         <v>0</v>
       </c>
       <c r="S306" s="4">
-        <f>IF(C306=0,0,N306/D306)</f>
+        <f>IF(C306=0,0,N306/C306)</f>
         <v>0</v>
       </c>
       <c r="T306" s="3">
@@ -25498,7 +25498,7 @@
         <v>0</v>
       </c>
       <c r="S307" s="4">
-        <f>IF(C307=0,0,N307/D307)</f>
+        <f>IF(C307=0,0,N307/C307)</f>
         <v>0</v>
       </c>
       <c r="T307" s="3">
@@ -25571,7 +25571,7 @@
         <v>0</v>
       </c>
       <c r="S308" s="4">
-        <f>IF(C308=0,0,N308/D308)</f>
+        <f>IF(C308=0,0,N308/C308)</f>
         <v>0</v>
       </c>
       <c r="T308" s="3">
@@ -25644,7 +25644,7 @@
         <v>0</v>
       </c>
       <c r="S309" s="4">
-        <f>IF(C309=0,0,N309/D309)</f>
+        <f>IF(C309=0,0,N309/C309)</f>
         <v>0</v>
       </c>
       <c r="T309" s="3">
@@ -25717,7 +25717,7 @@
         <v>0</v>
       </c>
       <c r="S310" s="4">
-        <f>IF(C310=0,0,N310/D310)</f>
+        <f>IF(C310=0,0,N310/C310)</f>
         <v>0</v>
       </c>
       <c r="T310" s="3">
@@ -25790,7 +25790,7 @@
         <v>0</v>
       </c>
       <c r="S311" s="4">
-        <f>IF(C311=0,0,N311/D311)</f>
+        <f>IF(C311=0,0,N311/C311)</f>
         <v>0</v>
       </c>
       <c r="T311" s="3">
@@ -25863,7 +25863,7 @@
         <v>0</v>
       </c>
       <c r="S312" s="4">
-        <f>IF(C312=0,0,N312/D312)</f>
+        <f>IF(C312=0,0,N312/C312)</f>
         <v>0</v>
       </c>
       <c r="T312" s="3">
@@ -25936,7 +25936,7 @@
         <v>0</v>
       </c>
       <c r="S313" s="4">
-        <f>IF(C313=0,0,N313/D313)</f>
+        <f>IF(C313=0,0,N313/C313)</f>
         <v>0</v>
       </c>
       <c r="T313" s="3">
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="S314" s="4">
-        <f>IF(C314=0,0,N314/D314)</f>
+        <f>IF(C314=0,0,N314/C314)</f>
         <v>0</v>
       </c>
       <c r="T314" s="3">
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="S315" s="4">
-        <f>IF(C315=0,0,N315/D315)</f>
+        <f>IF(C315=0,0,N315/C315)</f>
         <v>0</v>
       </c>
       <c r="T315" s="3">
@@ -26155,7 +26155,7 @@
         <v>0</v>
       </c>
       <c r="S316" s="4">
-        <f>IF(C316=0,0,N316/D316)</f>
+        <f>IF(C316=0,0,N316/C316)</f>
         <v>0</v>
       </c>
       <c r="T316" s="3">
@@ -26228,7 +26228,7 @@
         <v>0</v>
       </c>
       <c r="S317" s="4">
-        <f>IF(C317=0,0,N317/D317)</f>
+        <f>IF(C317=0,0,N317/C317)</f>
         <v>0</v>
       </c>
       <c r="T317" s="3">
@@ -26301,7 +26301,7 @@
         <v>281</v>
       </c>
       <c r="S318" s="4">
-        <f>IF(C318=0,0,N318/D318)</f>
+        <f>IF(C318=0,0,N318/C318)</f>
         <v>0</v>
       </c>
       <c r="T318" s="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="S319" s="4">
-        <f>IF(C319=0,0,N319/D319)</f>
+        <f>IF(C319=0,0,N319/C319)</f>
         <v>0</v>
       </c>
       <c r="T319" s="3">
@@ -26447,7 +26447,7 @@
         <v>310</v>
       </c>
       <c r="S320" s="4">
-        <f>IF(C320=0,0,N320/D320)</f>
+        <f>IF(C320=0,0,N320/C320)</f>
         <v>0</v>
       </c>
       <c r="T320" s="3">
@@ -26520,7 +26520,7 @@
         <v>0</v>
       </c>
       <c r="S321" s="4">
-        <f>IF(C321=0,0,N321/D321)</f>
+        <f>IF(C321=0,0,N321/C321)</f>
         <v>0</v>
       </c>
       <c r="T321" s="3">
@@ -26593,7 +26593,7 @@
         <v>0</v>
       </c>
       <c r="S322" s="4">
-        <f>IF(C322=0,0,N322/D322)</f>
+        <f>IF(C322=0,0,N322/C322)</f>
         <v>0</v>
       </c>
       <c r="T322" s="3">
@@ -26666,7 +26666,7 @@
         <v>310</v>
       </c>
       <c r="S323" s="4">
-        <f>IF(C323=0,0,N323/D323)</f>
+        <f>IF(C323=0,0,N323/C323)</f>
         <v>0</v>
       </c>
       <c r="T323" s="3">
@@ -26739,7 +26739,7 @@
         <v>0</v>
       </c>
       <c r="S324" s="4">
-        <f>IF(C324=0,0,N324/D324)</f>
+        <f>IF(C324=0,0,N324/C324)</f>
         <v>0</v>
       </c>
       <c r="T324" s="3">
@@ -26812,7 +26812,7 @@
         <v>220</v>
       </c>
       <c r="S325" s="4">
-        <f>IF(C325=0,0,N325/D325)</f>
+        <f>IF(C325=0,0,N325/C325)</f>
         <v>0</v>
       </c>
       <c r="T325" s="3">
@@ -26885,7 +26885,7 @@
         <v>220</v>
       </c>
       <c r="S326" s="4">
-        <f>IF(C326=0,0,N326/D326)</f>
+        <f>IF(C326=0,0,N326/C326)</f>
         <v>0</v>
       </c>
       <c r="T326" s="3">
@@ -26958,7 +26958,7 @@
         <v>0</v>
       </c>
       <c r="S327" s="4">
-        <f>IF(C327=0,0,N327/D327)</f>
+        <f>IF(C327=0,0,N327/C327)</f>
         <v>0</v>
       </c>
       <c r="T327" s="3">
@@ -27031,7 +27031,7 @@
         <v>0</v>
       </c>
       <c r="S328" s="4">
-        <f>IF(C328=0,0,N328/D328)</f>
+        <f>IF(C328=0,0,N328/C328)</f>
         <v>0</v>
       </c>
       <c r="T328" s="3">
@@ -27104,7 +27104,7 @@
         <v>310</v>
       </c>
       <c r="S329" s="4">
-        <f>IF(C329=0,0,N329/D329)</f>
+        <f>IF(C329=0,0,N329/C329)</f>
         <v>0</v>
       </c>
       <c r="T329" s="3">
@@ -27177,7 +27177,7 @@
         <v>281</v>
       </c>
       <c r="S330" s="4">
-        <f>IF(C330=0,0,N330/D330)</f>
+        <f>IF(C330=0,0,N330/C330)</f>
         <v>0</v>
       </c>
       <c r="T330" s="3">
@@ -27250,7 +27250,7 @@
         <v>0</v>
       </c>
       <c r="S331" s="4">
-        <f>IF(C331=0,0,N331/D331)</f>
+        <f>IF(C331=0,0,N331/C331)</f>
         <v>0</v>
       </c>
       <c r="T331" s="3">
@@ -27323,7 +27323,7 @@
         <v>331</v>
       </c>
       <c r="S332" s="4">
-        <f>IF(C332=0,0,N332/D332)</f>
+        <f>IF(C332=0,0,N332/C332)</f>
         <v>0</v>
       </c>
       <c r="T332" s="3">
@@ -27396,7 +27396,7 @@
         <v>331</v>
       </c>
       <c r="S333" s="4">
-        <f>IF(C333=0,0,N333/D333)</f>
+        <f>IF(C333=0,0,N333/C333)</f>
         <v>0</v>
       </c>
       <c r="T333" s="3">
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="S334" s="4">
-        <f>IF(C334=0,0,N334/D334)</f>
+        <f>IF(C334=0,0,N334/C334)</f>
         <v>0</v>
       </c>
       <c r="T334" s="3">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="S335" s="4">
-        <f>IF(C335=0,0,N335/D335)</f>
+        <f>IF(C335=0,0,N335/C335)</f>
         <v>0</v>
       </c>
       <c r="T335" s="3">
@@ -27615,7 +27615,7 @@
         <v>0</v>
       </c>
       <c r="S336" s="4">
-        <f>IF(C336=0,0,N336/D336)</f>
+        <f>IF(C336=0,0,N336/C336)</f>
         <v>0</v>
       </c>
       <c r="T336" s="3">
@@ -27688,7 +27688,7 @@
         <v>0</v>
       </c>
       <c r="S337" s="4">
-        <f>IF(C337=0,0,N337/D337)</f>
+        <f>IF(C337=0,0,N337/C337)</f>
         <v>0</v>
       </c>
       <c r="T337" s="3">
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="S338" s="4">
-        <f>IF(C338=0,0,N338/D338)</f>
+        <f>IF(C338=0,0,N338/C338)</f>
         <v>0</v>
       </c>
       <c r="T338" s="3">
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="S339" s="4">
-        <f>IF(C339=0,0,N339/D339)</f>
+        <f>IF(C339=0,0,N339/C339)</f>
         <v>0</v>
       </c>
       <c r="T339" s="3">
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="S340" s="4">
-        <f>IF(C340=0,0,N340/D340)</f>
+        <f>IF(C340=0,0,N340/C340)</f>
         <v>0</v>
       </c>
       <c r="T340" s="3">
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S341" s="4">
-        <f>IF(C341=0,0,N341/D341)</f>
+        <f>IF(C341=0,0,N341/C341)</f>
         <v>0</v>
       </c>
       <c r="T341" s="3">
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="S342" s="4">
-        <f>IF(C342=0,0,N342/D342)</f>
+        <f>IF(C342=0,0,N342/C342)</f>
         <v>0</v>
       </c>
       <c r="T342" s="3">
@@ -28126,7 +28126,7 @@
         <v>0</v>
       </c>
       <c r="S343" s="4">
-        <f>IF(C343=0,0,N343/D343)</f>
+        <f>IF(C343=0,0,N343/C343)</f>
         <v>0</v>
       </c>
       <c r="T343" s="3">
@@ -28199,7 +28199,7 @@
         <v>0</v>
       </c>
       <c r="S344" s="4">
-        <f>IF(C344=0,0,N344/D344)</f>
+        <f>IF(C344=0,0,N344/C344)</f>
         <v>0</v>
       </c>
       <c r="T344" s="3">
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="S345" s="4">
-        <f>IF(C345=0,0,N345/D345)</f>
+        <f>IF(C345=0,0,N345/C345)</f>
         <v>0</v>
       </c>
       <c r="T345" s="3">
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="S346" s="4">
-        <f>IF(C346=0,0,N346/D346)</f>
+        <f>IF(C346=0,0,N346/C346)</f>
         <v>0</v>
       </c>
       <c r="T346" s="3">
@@ -28418,7 +28418,7 @@
         <v>0</v>
       </c>
       <c r="S347" s="4">
-        <f>IF(C347=0,0,N347/D347)</f>
+        <f>IF(C347=0,0,N347/C347)</f>
         <v>0</v>
       </c>
       <c r="T347" s="3">
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="S348" s="4">
-        <f>IF(C348=0,0,N348/D348)</f>
+        <f>IF(C348=0,0,N348/C348)</f>
         <v>0</v>
       </c>
       <c r="T348" s="3">
@@ -28564,7 +28564,7 @@
         <v>331</v>
       </c>
       <c r="S349" s="4">
-        <f>IF(C349=0,0,N349/D349)</f>
+        <f>IF(C349=0,0,N349/C349)</f>
         <v>0</v>
       </c>
       <c r="T349" s="3">
@@ -28637,7 +28637,7 @@
         <v>331</v>
       </c>
       <c r="S350" s="4">
-        <f>IF(C350=0,0,N350/D350)</f>
+        <f>IF(C350=0,0,N350/C350)</f>
         <v>0</v>
       </c>
       <c r="T350" s="3">
@@ -28710,7 +28710,7 @@
         <v>331</v>
       </c>
       <c r="S351" s="4">
-        <f>IF(C351=0,0,N351/D351)</f>
+        <f>IF(C351=0,0,N351/C351)</f>
         <v>0</v>
       </c>
       <c r="T351" s="3">
@@ -28783,7 +28783,7 @@
         <v>331</v>
       </c>
       <c r="S352" s="4">
-        <f>IF(C352=0,0,N352/D352)</f>
+        <f>IF(C352=0,0,N352/C352)</f>
         <v>0</v>
       </c>
       <c r="T352" s="3">
@@ -28856,7 +28856,7 @@
         <v>0</v>
       </c>
       <c r="S353" s="4">
-        <f>IF(C353=0,0,N353/D353)</f>
+        <f>IF(C353=0,0,N353/C353)</f>
         <v>0</v>
       </c>
       <c r="T353" s="3">
@@ -28929,7 +28929,7 @@
         <v>331</v>
       </c>
       <c r="S354" s="4">
-        <f>IF(C354=0,0,N354/D354)</f>
+        <f>IF(C354=0,0,N354/C354)</f>
         <v>0</v>
       </c>
       <c r="T354" s="3">
@@ -29002,7 +29002,7 @@
         <v>331</v>
       </c>
       <c r="S355" s="4">
-        <f>IF(C355=0,0,N355/D355)</f>
+        <f>IF(C355=0,0,N355/C355)</f>
         <v>0</v>
       </c>
       <c r="T355" s="3">
@@ -29075,7 +29075,7 @@
         <v>0</v>
       </c>
       <c r="S356" s="4">
-        <f>IF(C356=0,0,N356/D356)</f>
+        <f>IF(C356=0,0,N356/C356)</f>
         <v>0</v>
       </c>
       <c r="T356" s="3">
@@ -29148,7 +29148,7 @@
         <v>331</v>
       </c>
       <c r="S357" s="4">
-        <f>IF(C357=0,0,N357/D357)</f>
+        <f>IF(C357=0,0,N357/C357)</f>
         <v>0</v>
       </c>
       <c r="T357" s="3">
@@ -29221,7 +29221,7 @@
         <v>0</v>
       </c>
       <c r="S358" s="4">
-        <f>IF(C358=0,0,N358/D358)</f>
+        <f>IF(C358=0,0,N358/C358)</f>
         <v>0</v>
       </c>
       <c r="T358" s="3">
@@ -29294,7 +29294,7 @@
         <v>0</v>
       </c>
       <c r="S359" s="4">
-        <f>IF(C359=0,0,N359/D359)</f>
+        <f>IF(C359=0,0,N359/C359)</f>
         <v>0</v>
       </c>
       <c r="T359" s="3">
@@ -29367,7 +29367,7 @@
         <v>331</v>
       </c>
       <c r="S360" s="4">
-        <f>IF(C360=0,0,N360/D360)</f>
+        <f>IF(C360=0,0,N360/C360)</f>
         <v>0</v>
       </c>
       <c r="T360" s="3">
@@ -29440,7 +29440,7 @@
         <v>0</v>
       </c>
       <c r="S361" s="4">
-        <f>IF(C361=0,0,N361/D361)</f>
+        <f>IF(C361=0,0,N361/C361)</f>
         <v>0</v>
       </c>
       <c r="T361" s="3">
@@ -29513,7 +29513,7 @@
         <v>0</v>
       </c>
       <c r="S362" s="4">
-        <f>IF(C362=0,0,N362/D362)</f>
+        <f>IF(C362=0,0,N362/C362)</f>
         <v>0</v>
       </c>
       <c r="T362" s="3">
@@ -29586,7 +29586,7 @@
         <v>0</v>
       </c>
       <c r="S363" s="4">
-        <f>IF(C363=0,0,N363/D363)</f>
+        <f>IF(C363=0,0,N363/C363)</f>
         <v>0</v>
       </c>
       <c r="T363" s="3">
@@ -29659,7 +29659,7 @@
         <v>0</v>
       </c>
       <c r="S364" s="4">
-        <f>IF(C364=0,0,N364/D364)</f>
+        <f>IF(C364=0,0,N364/C364)</f>
         <v>0</v>
       </c>
       <c r="T364" s="3">
@@ -29732,7 +29732,7 @@
         <v>0</v>
       </c>
       <c r="S365" s="4">
-        <f>IF(C365=0,0,N365/D365)</f>
+        <f>IF(C365=0,0,N365/C365)</f>
         <v>0</v>
       </c>
       <c r="T365" s="3">
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="S366" s="4">
-        <f>IF(C366=0,0,N366/D366)</f>
+        <f>IF(C366=0,0,N366/C366)</f>
         <v>0</v>
       </c>
       <c r="T366" s="3">
@@ -29878,7 +29878,7 @@
         <v>331</v>
       </c>
       <c r="S367" s="4">
-        <f>IF(C367=0,0,N367/D367)</f>
+        <f>IF(C367=0,0,N367/C367)</f>
         <v>0</v>
       </c>
       <c r="T367" s="3">
@@ -29951,7 +29951,7 @@
         <v>331</v>
       </c>
       <c r="S368" s="4">
-        <f>IF(C368=0,0,N368/D368)</f>
+        <f>IF(C368=0,0,N368/C368)</f>
         <v>0</v>
       </c>
       <c r="T368" s="3">
@@ -30024,7 +30024,7 @@
         <v>331</v>
       </c>
       <c r="S369" s="4">
-        <f>IF(C369=0,0,N369/D369)</f>
+        <f>IF(C369=0,0,N369/C369)</f>
         <v>0</v>
       </c>
       <c r="T369" s="3">
@@ -30097,7 +30097,7 @@
         <v>331</v>
       </c>
       <c r="S370" s="4">
-        <f>IF(C370=0,0,N370/D370)</f>
+        <f>IF(C370=0,0,N370/C370)</f>
         <v>0</v>
       </c>
       <c r="T370" s="3">
@@ -30170,7 +30170,7 @@
         <v>331</v>
       </c>
       <c r="S371" s="4">
-        <f>IF(C371=0,0,N371/D371)</f>
+        <f>IF(C371=0,0,N371/C371)</f>
         <v>0</v>
       </c>
       <c r="T371" s="3">
@@ -30243,7 +30243,7 @@
         <v>27</v>
       </c>
       <c r="S372" s="4">
-        <f>IF(C372=0,0,N372/D372)</f>
+        <f>IF(C372=0,0,N372/C372)</f>
         <v>0</v>
       </c>
       <c r="T372" s="3">
@@ -30316,7 +30316,7 @@
         <v>27</v>
       </c>
       <c r="S373" s="4">
-        <f>IF(C373=0,0,N373/D373)</f>
+        <f>IF(C373=0,0,N373/C373)</f>
         <v>0</v>
       </c>
       <c r="T373" s="3">
@@ -30389,7 +30389,7 @@
         <v>27</v>
       </c>
       <c r="S374" s="4">
-        <f>IF(C374=0,0,N374/D374)</f>
+        <f>IF(C374=0,0,N374/C374)</f>
         <v>0</v>
       </c>
       <c r="T374" s="3">
@@ -30462,7 +30462,7 @@
         <v>27</v>
       </c>
       <c r="S375" s="4">
-        <f>IF(C375=0,0,N375/D375)</f>
+        <f>IF(C375=0,0,N375/C375)</f>
         <v>0</v>
       </c>
       <c r="T375" s="3">
@@ -30535,7 +30535,7 @@
         <v>27</v>
       </c>
       <c r="S376" s="4">
-        <f>IF(C376=0,0,N376/D376)</f>
+        <f>IF(C376=0,0,N376/C376)</f>
         <v>0</v>
       </c>
       <c r="T376" s="3">
@@ -30608,7 +30608,7 @@
         <v>27</v>
       </c>
       <c r="S377" s="4">
-        <f>IF(C377=0,0,N377/D377)</f>
+        <f>IF(C377=0,0,N377/C377)</f>
         <v>0</v>
       </c>
       <c r="T377" s="3">
@@ -30681,7 +30681,7 @@
         <v>27</v>
       </c>
       <c r="S378" s="4">
-        <f>IF(C378=0,0,N378/D378)</f>
+        <f>IF(C378=0,0,N378/C378)</f>
         <v>0</v>
       </c>
       <c r="T378" s="3">
@@ -30754,7 +30754,7 @@
         <v>27</v>
       </c>
       <c r="S379" s="4">
-        <f>IF(C379=0,0,N379/D379)</f>
+        <f>IF(C379=0,0,N379/C379)</f>
         <v>0</v>
       </c>
       <c r="T379" s="3">
@@ -30827,7 +30827,7 @@
         <v>27</v>
       </c>
       <c r="S380" s="4">
-        <f>IF(C380=0,0,N380/D380)</f>
+        <f>IF(C380=0,0,N380/C380)</f>
         <v>0</v>
       </c>
       <c r="T380" s="3">
@@ -30900,7 +30900,7 @@
         <v>27</v>
       </c>
       <c r="S381" s="4">
-        <f>IF(C381=0,0,N381/D381)</f>
+        <f>IF(C381=0,0,N381/C381)</f>
         <v>0</v>
       </c>
       <c r="T381" s="3">
@@ -30973,7 +30973,7 @@
         <v>331</v>
       </c>
       <c r="S382" s="4">
-        <f>IF(C382=0,0,N382/D382)</f>
+        <f>IF(C382=0,0,N382/C382)</f>
         <v>0</v>
       </c>
       <c r="T382" s="3">
@@ -31046,7 +31046,7 @@
         <v>331</v>
       </c>
       <c r="S383" s="4">
-        <f>IF(C383=0,0,N383/D383)</f>
+        <f>IF(C383=0,0,N383/C383)</f>
         <v>0</v>
       </c>
       <c r="T383" s="3">
@@ -31119,7 +31119,7 @@
         <v>0</v>
       </c>
       <c r="S384" s="4">
-        <f>IF(C384=0,0,N384/D384)</f>
+        <f>IF(C384=0,0,N384/C384)</f>
         <v>0</v>
       </c>
       <c r="T384" s="3">
@@ -31192,7 +31192,7 @@
         <v>0</v>
       </c>
       <c r="S385" s="4">
-        <f>IF(C385=0,0,N385/D385)</f>
+        <f>IF(C385=0,0,N385/C385)</f>
         <v>0</v>
       </c>
       <c r="T385" s="3">
@@ -31265,7 +31265,7 @@
         <v>0</v>
       </c>
       <c r="S386" s="4">
-        <f>IF(C386=0,0,N386/D386)</f>
+        <f>IF(C386=0,0,N386/C386)</f>
         <v>0</v>
       </c>
       <c r="T386" s="3">
@@ -31338,7 +31338,7 @@
         <v>0</v>
       </c>
       <c r="S387" s="4">
-        <f>IF(C387=0,0,N387/D387)</f>
+        <f>IF(C387=0,0,N387/C387)</f>
         <v>0</v>
       </c>
       <c r="T387" s="3">
@@ -31411,7 +31411,7 @@
         <v>220</v>
       </c>
       <c r="S388" s="4">
-        <f>IF(C388=0,0,N388/D388)</f>
+        <f>IF(C388=0,0,N388/C388)</f>
         <v>0</v>
       </c>
       <c r="T388" s="3">
@@ -31484,7 +31484,7 @@
         <v>220</v>
       </c>
       <c r="S389" s="4">
-        <f>IF(C389=0,0,N389/D389)</f>
+        <f>IF(C389=0,0,N389/C389)</f>
         <v>0</v>
       </c>
       <c r="T389" s="3">
@@ -31557,7 +31557,7 @@
         <v>0</v>
       </c>
       <c r="S390" s="4">
-        <f>IF(C390=0,0,N390/D390)</f>
+        <f>IF(C390=0,0,N390/C390)</f>
         <v>0</v>
       </c>
       <c r="T390" s="3">
@@ -31630,7 +31630,7 @@
         <v>0</v>
       </c>
       <c r="S391" s="4">
-        <f>IF(C391=0,0,N391/D391)</f>
+        <f>IF(C391=0,0,N391/C391)</f>
         <v>0</v>
       </c>
       <c r="T391" s="3">
@@ -31703,7 +31703,7 @@
         <v>0</v>
       </c>
       <c r="S392" s="4">
-        <f>IF(C392=0,0,N392/D392)</f>
+        <f>IF(C392=0,0,N392/C392)</f>
         <v>0</v>
       </c>
       <c r="T392" s="3">
@@ -31776,7 +31776,7 @@
         <v>825</v>
       </c>
       <c r="S393" s="4">
-        <f>IF(C393=0,0,N393/D393)</f>
+        <f>IF(C393=0,0,N393/C393)</f>
         <v>0</v>
       </c>
       <c r="T393" s="3">
@@ -31849,7 +31849,7 @@
         <v>0</v>
       </c>
       <c r="S394" s="4">
-        <f>IF(C394=0,0,N394/D394)</f>
+        <f>IF(C394=0,0,N394/C394)</f>
         <v>0</v>
       </c>
       <c r="T394" s="3">
@@ -31922,7 +31922,7 @@
         <v>0</v>
       </c>
       <c r="S395" s="4">
-        <f>IF(C395=0,0,N395/D395)</f>
+        <f>IF(C395=0,0,N395/C395)</f>
         <v>0</v>
       </c>
       <c r="T395" s="3">
@@ -31995,7 +31995,7 @@
         <v>0</v>
       </c>
       <c r="S396" s="4">
-        <f>IF(C396=0,0,N396/D396)</f>
+        <f>IF(C396=0,0,N396/C396)</f>
         <v>0</v>
       </c>
       <c r="T396" s="3">
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="S397" s="4">
-        <f>IF(C397=0,0,N397/D397)</f>
+        <f>IF(C397=0,0,N397/C397)</f>
         <v>0</v>
       </c>
       <c r="T397" s="3">
@@ -32141,7 +32141,7 @@
         <v>0</v>
       </c>
       <c r="S398" s="4">
-        <f>IF(C398=0,0,N398/D398)</f>
+        <f>IF(C398=0,0,N398/C398)</f>
         <v>0</v>
       </c>
       <c r="T398" s="3">
@@ -32214,7 +32214,7 @@
         <v>0</v>
       </c>
       <c r="S399" s="4">
-        <f>IF(C399=0,0,N399/D399)</f>
+        <f>IF(C399=0,0,N399/C399)</f>
         <v>0</v>
       </c>
       <c r="T399" s="3">
@@ -32287,7 +32287,7 @@
         <v>0</v>
       </c>
       <c r="S400" s="4">
-        <f>IF(C400=0,0,N400/D400)</f>
+        <f>IF(C400=0,0,N400/C400)</f>
         <v>0</v>
       </c>
       <c r="T400" s="3">
@@ -32360,7 +32360,7 @@
         <v>0</v>
       </c>
       <c r="S401" s="4">
-        <f>IF(C401=0,0,N401/D401)</f>
+        <f>IF(C401=0,0,N401/C401)</f>
         <v>0</v>
       </c>
       <c r="T401" s="3">
@@ -32433,7 +32433,7 @@
         <v>0</v>
       </c>
       <c r="S402" s="4">
-        <f>IF(C402=0,0,N402/D402)</f>
+        <f>IF(C402=0,0,N402/C402)</f>
         <v>0</v>
       </c>
       <c r="T402" s="3">
@@ -32506,7 +32506,7 @@
         <v>0</v>
       </c>
       <c r="S403" s="4">
-        <f>IF(C403=0,0,N403/D403)</f>
+        <f>IF(C403=0,0,N403/C403)</f>
         <v>0</v>
       </c>
       <c r="T403" s="3">
@@ -32579,7 +32579,7 @@
         <v>0</v>
       </c>
       <c r="S404" s="4">
-        <f>IF(C404=0,0,N404/D404)</f>
+        <f>IF(C404=0,0,N404/C404)</f>
         <v>0</v>
       </c>
       <c r="T404" s="3">
@@ -32652,7 +32652,7 @@
         <v>220</v>
       </c>
       <c r="S405" s="4">
-        <f>IF(C405=0,0,N405/D405)</f>
+        <f>IF(C405=0,0,N405/C405)</f>
         <v>0</v>
       </c>
       <c r="T405" s="3">
@@ -32725,7 +32725,7 @@
         <v>0</v>
       </c>
       <c r="S406" s="4">
-        <f>IF(C406=0,0,N406/D406)</f>
+        <f>IF(C406=0,0,N406/C406)</f>
         <v>0</v>
       </c>
       <c r="T406" s="3">
@@ -32798,7 +32798,7 @@
         <v>0</v>
       </c>
       <c r="S407" s="4">
-        <f>IF(C407=0,0,N407/D407)</f>
+        <f>IF(C407=0,0,N407/C407)</f>
         <v>0</v>
       </c>
       <c r="T407" s="3">
@@ -32871,7 +32871,7 @@
         <v>0</v>
       </c>
       <c r="S408" s="4">
-        <f>IF(C408=0,0,N408/D408)</f>
+        <f>IF(C408=0,0,N408/C408)</f>
         <v>0</v>
       </c>
       <c r="T408" s="3">
@@ -32944,7 +32944,7 @@
         <v>0</v>
       </c>
       <c r="S409" s="4">
-        <f>IF(C409=0,0,N409/D409)</f>
+        <f>IF(C409=0,0,N409/C409)</f>
         <v>0</v>
       </c>
       <c r="T409" s="3">
@@ -33017,7 +33017,7 @@
         <v>0</v>
       </c>
       <c r="S410" s="4">
-        <f>IF(C410=0,0,N410/D410)</f>
+        <f>IF(C410=0,0,N410/C410)</f>
         <v>0</v>
       </c>
       <c r="T410" s="3">
@@ -33090,7 +33090,7 @@
         <v>0</v>
       </c>
       <c r="S411" s="4">
-        <f>IF(C411=0,0,N411/D411)</f>
+        <f>IF(C411=0,0,N411/C411)</f>
         <v>0</v>
       </c>
       <c r="T411" s="3">
@@ -33163,7 +33163,7 @@
         <v>0</v>
       </c>
       <c r="S412" s="4">
-        <f>IF(C412=0,0,N412/D412)</f>
+        <f>IF(C412=0,0,N412/C412)</f>
         <v>0</v>
       </c>
       <c r="T412" s="3">
@@ -33236,7 +33236,7 @@
         <v>0</v>
       </c>
       <c r="S413" s="4">
-        <f>IF(C413=0,0,N413/D413)</f>
+        <f>IF(C413=0,0,N413/C413)</f>
         <v>0</v>
       </c>
       <c r="T413" s="3">
@@ -33309,7 +33309,7 @@
         <v>0</v>
       </c>
       <c r="S414" s="4">
-        <f>IF(C414=0,0,N414/D414)</f>
+        <f>IF(C414=0,0,N414/C414)</f>
         <v>0</v>
       </c>
       <c r="T414" s="3">
@@ -33382,7 +33382,7 @@
         <v>0</v>
       </c>
       <c r="S415" s="4">
-        <f>IF(C415=0,0,N415/D415)</f>
+        <f>IF(C415=0,0,N415/C415)</f>
         <v>0</v>
       </c>
       <c r="T415" s="3">
@@ -33455,7 +33455,7 @@
         <v>0</v>
       </c>
       <c r="S416" s="4">
-        <f>IF(C416=0,0,N416/D416)</f>
+        <f>IF(C416=0,0,N416/C416)</f>
         <v>0</v>
       </c>
       <c r="T416" s="3">
@@ -33528,7 +33528,7 @@
         <v>0</v>
       </c>
       <c r="S417" s="4">
-        <f>IF(C417=0,0,N417/D417)</f>
+        <f>IF(C417=0,0,N417/C417)</f>
         <v>0</v>
       </c>
       <c r="T417" s="3">
@@ -33601,7 +33601,7 @@
         <v>0</v>
       </c>
       <c r="S418" s="4">
-        <f>IF(C418=0,0,N418/D418)</f>
+        <f>IF(C418=0,0,N418/C418)</f>
         <v>0</v>
       </c>
       <c r="T418" s="3">
@@ -33674,7 +33674,7 @@
         <v>0</v>
       </c>
       <c r="S419" s="4">
-        <f>IF(C419=0,0,N419/D419)</f>
+        <f>IF(C419=0,0,N419/C419)</f>
         <v>0</v>
       </c>
       <c r="T419" s="3">
@@ -33747,7 +33747,7 @@
         <v>0</v>
       </c>
       <c r="S420" s="4">
-        <f>IF(C420=0,0,N420/D420)</f>
+        <f>IF(C420=0,0,N420/C420)</f>
         <v>0</v>
       </c>
       <c r="T420" s="3">
@@ -33820,7 +33820,7 @@
         <v>0</v>
       </c>
       <c r="S421" s="4">
-        <f>IF(C421=0,0,N421/D421)</f>
+        <f>IF(C421=0,0,N421/C421)</f>
         <v>0</v>
       </c>
       <c r="T421" s="3">
@@ -33893,7 +33893,7 @@
         <v>0</v>
       </c>
       <c r="S422" s="4">
-        <f>IF(C422=0,0,N422/D422)</f>
+        <f>IF(C422=0,0,N422/C422)</f>
         <v>0</v>
       </c>
       <c r="T422" s="3">
@@ -33966,7 +33966,7 @@
         <v>0</v>
       </c>
       <c r="S423" s="4">
-        <f>IF(C423=0,0,N423/D423)</f>
+        <f>IF(C423=0,0,N423/C423)</f>
         <v>0</v>
       </c>
       <c r="T423" s="3">
@@ -34039,7 +34039,7 @@
         <v>0</v>
       </c>
       <c r="S424" s="4">
-        <f>IF(C424=0,0,N424/D424)</f>
+        <f>IF(C424=0,0,N424/C424)</f>
         <v>0</v>
       </c>
       <c r="T424" s="3">
@@ -34112,7 +34112,7 @@
         <v>825</v>
       </c>
       <c r="S425" s="4">
-        <f>IF(C425=0,0,N425/D425)</f>
+        <f>IF(C425=0,0,N425/C425)</f>
         <v>0</v>
       </c>
       <c r="T425" s="3">
@@ -34185,7 +34185,7 @@
         <v>0</v>
       </c>
       <c r="S426" s="4">
-        <f>IF(C426=0,0,N426/D426)</f>
+        <f>IF(C426=0,0,N426/C426)</f>
         <v>0</v>
       </c>
       <c r="T426" s="3">
@@ -34258,7 +34258,7 @@
         <v>0</v>
       </c>
       <c r="S427" s="4">
-        <f>IF(C427=0,0,N427/D427)</f>
+        <f>IF(C427=0,0,N427/C427)</f>
         <v>0</v>
       </c>
       <c r="T427" s="3">
@@ -34331,7 +34331,7 @@
         <v>0</v>
       </c>
       <c r="S428" s="4">
-        <f>IF(C428=0,0,N428/D428)</f>
+        <f>IF(C428=0,0,N428/C428)</f>
         <v>0</v>
       </c>
       <c r="T428" s="3">
@@ -34404,7 +34404,7 @@
         <v>0</v>
       </c>
       <c r="S429" s="4">
-        <f>IF(C429=0,0,N429/D429)</f>
+        <f>IF(C429=0,0,N429/C429)</f>
         <v>0</v>
       </c>
       <c r="T429" s="3">
